--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8308F-8D28-4141-A560-A9F205D8E90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65711AC2-FFBF-4490-8244-474E8337FEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="generador_datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,22 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t>ambiente</t>
-  </si>
-  <si>
-    <t>materiales</t>
-  </si>
-  <si>
-    <t>comitente</t>
-  </si>
-  <si>
-    <t>trazable</t>
-  </si>
-  <si>
-    <t>tipo_material</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>filtrar</t>
   </si>
@@ -54,103 +39,130 @@
     <t>generar</t>
   </si>
   <si>
-    <t>mostrar</t>
-  </si>
-  <si>
-    <t>cant_ingresar</t>
-  </si>
-  <si>
-    <t>ingresa_cuarentena</t>
-  </si>
-  <si>
-    <t>codificacion</t>
-  </si>
-  <si>
-    <t>informado_por</t>
-  </si>
-  <si>
-    <t>ingresa_trazado</t>
-  </si>
-  <si>
-    <t>nac_trazado</t>
-  </si>
-  <si>
-    <t>procedencia</t>
-  </si>
-  <si>
-    <t>cod_aduana</t>
-  </si>
-  <si>
-    <t>cod_destino</t>
-  </si>
-  <si>
-    <t>n_despacho</t>
-  </si>
-  <si>
-    <t>dig_ver_n_despacho</t>
-  </si>
-  <si>
-    <t>fecha_despacho_plaza</t>
-  </si>
-  <si>
-    <t>prioridad</t>
-  </si>
-  <si>
-    <t>cod_plazo</t>
-  </si>
-  <si>
-    <t>canti_pedido</t>
-  </si>
-  <si>
-    <t>descuento</t>
-  </si>
-  <si>
-    <t>uni_bonificadas</t>
-  </si>
-  <si>
-    <t>otros_clientes</t>
-  </si>
-  <si>
-    <t>cliente_dist</t>
-  </si>
-  <si>
-    <t>ped_comitente_i101</t>
-  </si>
-  <si>
-    <t>ped_dist_i106</t>
-  </si>
-  <si>
-    <t>pedi_cliente_i089</t>
-  </si>
-  <si>
-    <t>rem_elect_i141</t>
-  </si>
-  <si>
-    <t>alta_lotes_i105</t>
-  </si>
-  <si>
-    <t>todas_formas_pago</t>
-  </si>
-  <si>
-    <t>mostrar_lotes</t>
-  </si>
-  <si>
-    <t>Novartis 06</t>
-  </si>
-  <si>
-    <t>crear_pedido</t>
-  </si>
-  <si>
     <t>ON</t>
   </si>
   <si>
     <t>OFF</t>
   </si>
   <si>
-    <t>ZPRO</t>
-  </si>
-  <si>
-    <t>SI</t>
+    <t>param_ambiente</t>
+  </si>
+  <si>
+    <t>param_materiales</t>
+  </si>
+  <si>
+    <t>param_comitente</t>
+  </si>
+  <si>
+    <t>param_trazable</t>
+  </si>
+  <si>
+    <t>param_crear_pedido</t>
+  </si>
+  <si>
+    <t>param_tipo_material</t>
+  </si>
+  <si>
+    <t>out_lote</t>
+  </si>
+  <si>
+    <t>out_fech_actual</t>
+  </si>
+  <si>
+    <t>out_fech_ven</t>
+  </si>
+  <si>
+    <t>out_n_remito</t>
+  </si>
+  <si>
+    <t>param_cant_ingresar</t>
+  </si>
+  <si>
+    <t>out_oc_comitente</t>
+  </si>
+  <si>
+    <t>param_ingresa_cuarentena</t>
+  </si>
+  <si>
+    <t>param_codificacion</t>
+  </si>
+  <si>
+    <t>param_informado_por</t>
+  </si>
+  <si>
+    <t>param_ingresa_trazado</t>
+  </si>
+  <si>
+    <t>param_nac_trazado</t>
+  </si>
+  <si>
+    <t>param_procedencia</t>
+  </si>
+  <si>
+    <t>param_cod_aduana</t>
+  </si>
+  <si>
+    <t>param_cod_destino</t>
+  </si>
+  <si>
+    <t>out_n_despacho</t>
+  </si>
+  <si>
+    <t>out_dig_ver_n_despacho</t>
+  </si>
+  <si>
+    <t>out_fecha_despacho_plaza</t>
+  </si>
+  <si>
+    <t>out_n_pedido</t>
+  </si>
+  <si>
+    <t>param_prioridad</t>
+  </si>
+  <si>
+    <t>param_cod_plazo</t>
+  </si>
+  <si>
+    <t>param_todas_formas_pago</t>
+  </si>
+  <si>
+    <t>param_canti_pedido</t>
+  </si>
+  <si>
+    <t>param_descuento</t>
+  </si>
+  <si>
+    <t>param_uni_bonificadas</t>
+  </si>
+  <si>
+    <t>param_otros_clientes</t>
+  </si>
+  <si>
+    <t>param_cliente_dist</t>
+  </si>
+  <si>
+    <t>out_alta_lotes_i105</t>
+  </si>
+  <si>
+    <t>out_rem_elect_i141</t>
+  </si>
+  <si>
+    <t>out_pedi_cliente_i089</t>
+  </si>
+  <si>
+    <t>out_ped_dist_i106</t>
+  </si>
+  <si>
+    <t>out_ped_comitente_i101</t>
+  </si>
+  <si>
+    <t>out_n_entrega</t>
+  </si>
+  <si>
+    <t>out_n_factura</t>
+  </si>
+  <si>
+    <t>out_n_orden_compra</t>
   </si>
   <si>
     <t>Calidad</t>
@@ -169,12 +181,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,8 +213,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,181 +531,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1002</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="AD2">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>2001</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2">
-        <v>19</v>
+      <c r="AG2">
+        <v>2032500</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65711AC2-FFBF-4490-8244-474E8337FEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4456E-BF93-40C5-A87D-240C0C4E676D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>filtrar</t>
   </si>
@@ -166,13 +166,44 @@
   </si>
   <si>
     <t>Calidad</t>
+  </si>
+  <si>
+    <t>out_n_pedido_sap</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOTE1063</t>
+  </si>
+  <si>
+    <t>20200103</t>
+  </si>
+  <si>
+    <t>20210825</t>
+  </si>
+  <si>
+    <t>1063</t>
+  </si>
+  <si>
+    <t>0000-00001063</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20191104</t>
+  </si>
+  <si>
+    <t>3406454</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,57 +562,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+      <selection activeCell="AI5" sqref="AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="22" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="25.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="28.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="19" max="21" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -700,16 +730,19 @@
         <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -719,18 +752,50 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
       <c r="M2">
         <v>10</v>
       </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
       <c r="AD2">
         <v>10</v>
       </c>
       <c r="AG2">
         <v>2032500</v>
       </c>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C4456E-BF93-40C5-A87D-240C0C4E676D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72045F5-098F-48C0-B2EB-C5F53A839B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>filtrar</t>
   </si>
@@ -174,28 +174,40 @@
     <t/>
   </si>
   <si>
-    <t>LOTE1063</t>
-  </si>
-  <si>
-    <t>20200103</t>
-  </si>
-  <si>
-    <t>20210825</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>0000-00001063</t>
+    <t>LOTE1093</t>
+  </si>
+  <si>
+    <t>20200107</t>
+  </si>
+  <si>
+    <t>20210829</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>0000-00001093</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>20191104</t>
-  </si>
-  <si>
-    <t>3406454</t>
+    <t>20191108</t>
+  </si>
+  <si>
+    <t>3406757</t>
+  </si>
+  <si>
+    <t>LOTE1095</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>0000-00001095</t>
+  </si>
+  <si>
+    <t>3406778</t>
   </si>
 </sst>
 </file>
@@ -562,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AI5" sqref="AI5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +590,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
@@ -753,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
         <v>48</v>
@@ -762,13 +774,13 @@
         <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
@@ -783,10 +795,10 @@
         <v>53</v>
       </c>
       <c r="Z2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="AD2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AG2">
         <v>2032500</v>
@@ -797,6 +809,29 @@
       <c r="AL2"/>
       <c r="AM2"/>
     </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>19</v>
+      </c>
+      <c r="AG3">
+        <v>2032500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72045F5-098F-48C0-B2EB-C5F53A839B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF28D52-F0FA-44C8-912F-42C46F61EAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
+    <workbookView xWindow="735" yWindow="645" windowWidth="17475" windowHeight="9465" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
   <sheets>
     <sheet name="generador_datos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>filtrar</t>
   </si>
@@ -171,43 +171,55 @@
     <t>out_n_pedido_sap</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>out_ref_externa</t>
+  </si>
+  <si>
+    <t>LOTE1125</t>
+  </si>
+  <si>
+    <t>20200115</t>
+  </si>
+  <si>
+    <t>20210906</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>R0000-00001125</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20191116</t>
+  </si>
+  <si>
+    <t>3407077</t>
+  </si>
+  <si>
+    <t>1002;LOTE1125;20210906;DESC LOTE1125;LOTE1125;N;LOTE1125;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001125;FNET;FNET;02;ZRET;20200115;;1800000122;20200115;08:00;16:00;20000;Remito electrónico Test;;;1002;27;C/U;LOTE1125;;;;;0000-00001125;1125;20200115;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200115002C001CLIENTESAPNROOC032202001151002              27           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001150002073900PEDIDO                                                                          1002              27       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200115NROOC1  27     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              27     816 0  </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>LOTE1093</t>
-  </si>
-  <si>
-    <t>20200107</t>
-  </si>
-  <si>
-    <t>20210829</t>
-  </si>
-  <si>
-    <t>1093</t>
-  </si>
-  <si>
-    <t>0000-00001093</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20191108</t>
-  </si>
-  <si>
-    <t>3406757</t>
-  </si>
-  <si>
-    <t>LOTE1095</t>
-  </si>
-  <si>
-    <t>1095</t>
-  </si>
-  <si>
-    <t>0000-00001095</t>
-  </si>
-  <si>
-    <t>3406778</t>
+    <t>0001128513</t>
   </si>
 </sst>
 </file>
@@ -256,10 +268,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,13 +630,14 @@
     <col min="37" max="37" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
     <col min="38" max="38" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -742,19 +756,22 @@
         <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -764,72 +781,68 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AD2">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AG2">
         <v>2032500</v>
       </c>
-      <c r="AI2"/>
-      <c r="AJ2"/>
-      <c r="AK2"/>
-      <c r="AL2"/>
-      <c r="AM2"/>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>1002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD3">
-        <v>19</v>
-      </c>
-      <c r="AG3">
-        <v>2032500</v>
+      <c r="AI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2">
+        <v>3407087</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF28D52-F0FA-44C8-912F-42C46F61EAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302DABB-D6C0-48D2-811C-A34EA549F945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="645" windowWidth="17475" windowHeight="9465" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
   <sheets>
     <sheet name="generador_datos" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="122">
   <si>
     <t>filtrar</t>
   </si>
@@ -168,58 +168,235 @@
     <t>Calidad</t>
   </si>
   <si>
-    <t>out_n_pedido_sap</t>
+    <t>strHoraCreado</t>
+  </si>
+  <si>
+    <t>strFechaCreado</t>
+  </si>
+  <si>
+    <t>strNumPedidoSap</t>
+  </si>
+  <si>
+    <t>strRefExterna</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>out_ref_externa</t>
-  </si>
-  <si>
-    <t>LOTE1125</t>
-  </si>
-  <si>
-    <t>20200115</t>
-  </si>
-  <si>
-    <t>20210906</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>R0000-00001125</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>20191116</t>
-  </si>
-  <si>
-    <t>3407077</t>
-  </si>
-  <si>
-    <t>1002;LOTE1125;20210906;DESC LOTE1125;LOTE1125;N;LOTE1125;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001125;FNET;FNET;02;ZRET;20200115;;1800000122;20200115;08:00;16:00;20000;Remito electrónico Test;;;1002;27;C/U;LOTE1125;;;;;0000-00001125;1125;20200115;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200115002C001CLIENTESAPNROOC032202001151002              27           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001150002073900PEDIDO                                                                          1002              27       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200115NROOC1  27     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              27     816 0  </t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0001128513</t>
+    <t>27.01.2020</t>
+  </si>
+  <si>
+    <t>00:02</t>
+  </si>
+  <si>
+    <t>LOTE1179</t>
+  </si>
+  <si>
+    <t>20200127</t>
+  </si>
+  <si>
+    <t>20210918</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>R0000-00001179</t>
+  </si>
+  <si>
+    <t>20191128</t>
+  </si>
+  <si>
+    <t>3407610</t>
+  </si>
+  <si>
+    <t>00:04</t>
+  </si>
+  <si>
+    <t>00:09</t>
+  </si>
+  <si>
+    <t>LOTE1181</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>R0000-00001181</t>
+  </si>
+  <si>
+    <t>3407631</t>
+  </si>
+  <si>
+    <t>1002;LOTE1181;20210918;DESC LOTE1181;LOTE1181;N;LOTE1181;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001181;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;25;C/U;LOTE1181;;;;;0000-00001181;1181;20200127;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              25           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              25       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  25     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              25     816 0  </t>
+  </si>
+  <si>
+    <t>00:19</t>
+  </si>
+  <si>
+    <t>LOTE1185</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>R0000-00001185</t>
+  </si>
+  <si>
+    <t>3407673</t>
+  </si>
+  <si>
+    <t>1002;LOTE1185;20210918;DESC LOTE1185;LOTE1185;N;LOTE1185;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001185;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;26;C/U;LOTE1185;;;;;0000-00001185;1185;20200127;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              26           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              26       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  26     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              26     816 0  </t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>LOTE1189</t>
+  </si>
+  <si>
+    <t>1189</t>
+  </si>
+  <si>
+    <t>R0000-00001189</t>
+  </si>
+  <si>
+    <t>3407715</t>
+  </si>
+  <si>
+    <t>1002;LOTE1189;20210918;DESC LOTE1189;LOTE1189;N;LOTE1189;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001189;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;27;C/U;LOTE1189;;;;;0000-00001189;1189;20200127;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              27           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              27       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  27     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              27     816 0  </t>
+  </si>
+  <si>
+    <t>00:46</t>
+  </si>
+  <si>
+    <t>LOTE1191</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>R0000-00001191</t>
+  </si>
+  <si>
+    <t>3407736</t>
+  </si>
+  <si>
+    <t>1002;LOTE1191;20210918;DESC LOTE1191;LOTE1191;N;LOTE1191;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001191;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;28;C/U;LOTE1191;;;;;0000-00001191;1191;20200127;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              28           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              28       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  28     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              28     816 0  </t>
+  </si>
+  <si>
+    <t>00:56</t>
+  </si>
+  <si>
+    <t>LOTE1193</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>R0000-00001193</t>
+  </si>
+  <si>
+    <t>3407757</t>
+  </si>
+  <si>
+    <t>1002;LOTE1193;20210918;DESC LOTE1193;LOTE1193;N;LOTE1193;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001193;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;29;C/U;LOTE1193;;;;;0000-00001193;1193;20200127;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              29           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              29       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  29     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              29     816 0  </t>
+  </si>
+  <si>
+    <t>01:07</t>
+  </si>
+  <si>
+    <t>LOTE1195</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>R0000-00001195</t>
+  </si>
+  <si>
+    <t>3407778</t>
+  </si>
+  <si>
+    <t>1002;LOTE1195;20210918;DESC LOTE1195;LOTE1195;N;LOTE1195;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001195;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE1195;;;;;0000-00001195;1195;20200127;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              30           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              30       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  30     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              30     816 0  </t>
   </si>
 </sst>
 </file>
@@ -227,10 +404,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,11 +451,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,57 +771,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AN9" sqref="AN9"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="19" max="21" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="39" max="39" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="40" max="40" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="20" max="22" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -756,10 +944,10 @@
         <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>41</v>
@@ -770,8 +958,14 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -781,68 +975,631 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Z2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG2">
         <v>2032500</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4">
+        <v>1128614</v>
+      </c>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="W3" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" t="s">
         <v>59</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="Z3" t="s">
         <v>60</v>
       </c>
-      <c r="AN2">
-        <v>3407087</v>
-      </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AD3">
+        <v>24</v>
+      </c>
+      <c r="AG3">
+        <v>2032500</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>1002</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD4">
+        <v>25</v>
+      </c>
+      <c r="AG4">
+        <v>2032500</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT4" s="3" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5">
+        <v>26</v>
+      </c>
+      <c r="AG5">
+        <v>2032500</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>1002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD6">
+        <v>27</v>
+      </c>
+      <c r="AG6">
+        <v>2032500</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>1002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7">
+        <v>28</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="W7" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7">
+        <v>28</v>
+      </c>
+      <c r="AG7">
+        <v>2032500</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="W8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD8">
+        <v>29</v>
+      </c>
+      <c r="AG8">
+        <v>2032500</v>
+      </c>
+      <c r="AI8" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>1002</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="W9" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD9">
+        <v>30</v>
+      </c>
+      <c r="AG9">
+        <v>2032500</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D302DABB-D6C0-48D2-811C-A34EA549F945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0B5A5-3C47-4B09-A527-2C939CAA004E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>filtrar</t>
   </si>
@@ -180,223 +180,115 @@
     <t>strRefExterna</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>28.01.2020</t>
+  </si>
+  <si>
+    <t>10:11</t>
+  </si>
+  <si>
+    <t>LOTE1197</t>
+  </si>
+  <si>
+    <t>20200128</t>
+  </si>
+  <si>
+    <t>20210919</t>
+  </si>
+  <si>
+    <t>1197</t>
+  </si>
+  <si>
+    <t>R0000-00001197</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20191129</t>
+  </si>
+  <si>
+    <t>3407799</t>
+  </si>
+  <si>
+    <t>1002;LOTE1197;20210919;DESC LOTE1197;LOTE1197;N;LOTE1197;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001197;FNET;FNET;02;ZRET;20200128;;1800000122;20200128;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1197;;;;;0000-00001197;1197;20200128;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200128002C001CLIENTESAPNROOC032202001281002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001280002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200128NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  </t>
+  </si>
+  <si>
+    <t>10:22</t>
+  </si>
+  <si>
+    <t>LOTE1199</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
+    <t>R0000-00001199</t>
+  </si>
+  <si>
+    <t>3407820</t>
+  </si>
+  <si>
+    <t>1002;LOTE1199;20210919;DESC LOTE1199;LOTE1199;N;LOTE1199;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001199;FNET;FNET;02;ZRET;20200128;;1800000122;20200128;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1199;;;;;0000-00001199;1199;20200128;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200128002C001CLIENTESAPNROOC032202001281002              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001280002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200128NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  </t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>27.01.2020</t>
-  </si>
-  <si>
-    <t>00:02</t>
-  </si>
-  <si>
-    <t>LOTE1179</t>
-  </si>
-  <si>
-    <t>20200127</t>
-  </si>
-  <si>
-    <t>20210918</t>
-  </si>
-  <si>
-    <t>1179</t>
-  </si>
-  <si>
-    <t>R0000-00001179</t>
-  </si>
-  <si>
-    <t>20191128</t>
-  </si>
-  <si>
-    <t>3407610</t>
-  </si>
-  <si>
-    <t>00:04</t>
-  </si>
-  <si>
-    <t>00:09</t>
-  </si>
-  <si>
-    <t>LOTE1181</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>R0000-00001181</t>
-  </si>
-  <si>
-    <t>3407631</t>
-  </si>
-  <si>
-    <t>1002;LOTE1181;20210918;DESC LOTE1181;LOTE1181;N;LOTE1181;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001181;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;25;C/U;LOTE1181;;;;;0000-00001181;1181;20200127;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              25           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              25       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  25     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              25     816 0  </t>
-  </si>
-  <si>
-    <t>00:19</t>
-  </si>
-  <si>
-    <t>LOTE1185</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>R0000-00001185</t>
-  </si>
-  <si>
-    <t>3407673</t>
-  </si>
-  <si>
-    <t>1002;LOTE1185;20210918;DESC LOTE1185;LOTE1185;N;LOTE1185;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001185;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;26;C/U;LOTE1185;;;;;0000-00001185;1185;20200127;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              26           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              26       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  26     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              26     816 0  </t>
-  </si>
-  <si>
-    <t>00:35</t>
-  </si>
-  <si>
-    <t>LOTE1189</t>
-  </si>
-  <si>
-    <t>1189</t>
-  </si>
-  <si>
-    <t>R0000-00001189</t>
-  </si>
-  <si>
-    <t>3407715</t>
-  </si>
-  <si>
-    <t>1002;LOTE1189;20210918;DESC LOTE1189;LOTE1189;N;LOTE1189;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001189;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;27;C/U;LOTE1189;;;;;0000-00001189;1189;20200127;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              27           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              27       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  27     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              27     816 0  </t>
-  </si>
-  <si>
-    <t>00:46</t>
-  </si>
-  <si>
-    <t>LOTE1191</t>
-  </si>
-  <si>
-    <t>1191</t>
-  </si>
-  <si>
-    <t>R0000-00001191</t>
-  </si>
-  <si>
-    <t>3407736</t>
-  </si>
-  <si>
-    <t>1002;LOTE1191;20210918;DESC LOTE1191;LOTE1191;N;LOTE1191;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001191;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;28;C/U;LOTE1191;;;;;0000-00001191;1191;20200127;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              28           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              28       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  28     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              28     816 0  </t>
-  </si>
-  <si>
-    <t>00:56</t>
-  </si>
-  <si>
-    <t>LOTE1193</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>R0000-00001193</t>
-  </si>
-  <si>
-    <t>3407757</t>
-  </si>
-  <si>
-    <t>1002;LOTE1193;20210918;DESC LOTE1193;LOTE1193;N;LOTE1193;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001193;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;29;C/U;LOTE1193;;;;;0000-00001193;1193;20200127;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              29           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              29       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  29     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              29     816 0  </t>
-  </si>
-  <si>
-    <t>01:07</t>
-  </si>
-  <si>
-    <t>LOTE1195</t>
-  </si>
-  <si>
-    <t>1195</t>
-  </si>
-  <si>
-    <t>R0000-00001195</t>
-  </si>
-  <si>
-    <t>3407778</t>
-  </si>
-  <si>
-    <t>1002;LOTE1195;20210918;DESC LOTE1195;LOTE1195;N;LOTE1195;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001195;FNET;FNET;02;ZRET;20200127;;1800000122;20200127;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE1195;;;;;0000-00001195;1195;20200127;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200127002C001CLIENTESAPNROOC032202001271002              30           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001270002073900PEDIDO                                                                          1002              30       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200127NROOC1  30     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              30     816 0  </t>
+    <t>16:20</t>
+  </si>
+  <si>
+    <t>LOTE1201</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>R0000-00001201</t>
+  </si>
+  <si>
+    <t>3407841</t>
+  </si>
+  <si>
+    <t>1002;LOTE1201;20210919;DESC LOTE1201;LOTE1201;N;LOTE1201;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001201;FNET;FNET;02;ZRET;20200128;;1800000122;20200128;08:00;16:00;20000;Remito electrónico Test;;;1002;12;C/U;LOTE1201;;;;;0000-00001201;1201;20200128;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200128002C001CLIENTESAPNROOC032202001281002              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202001280002073900PEDIDO                                                                          1002              12       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200128NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              12     816 0  </t>
   </si>
 </sst>
 </file>
@@ -771,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,77 +868,77 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
         <v>56</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Y2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" t="s">
-        <v>60</v>
-      </c>
       <c r="AD2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AG2">
         <v>2032500</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AN2" s="4"/>
       <c r="AO2" s="4">
-        <v>1128614</v>
+        <v>1128658</v>
       </c>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
       <c r="AS2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -1060,72 +952,77 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
       <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
         <v>57</v>
       </c>
-      <c r="M3">
-        <v>24</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
         <v>58</v>
       </c>
-      <c r="W3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>59</v>
-      </c>
       <c r="Z3" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AD3">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AG3">
         <v>2032500</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
+      <c r="AO3" s="4">
+        <v>1128662</v>
+      </c>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
       <c r="AS3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -1139,61 +1036,64 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
       </c>
       <c r="W4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Y4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Z4" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="AD4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AG4">
         <v>2032500</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="AK4" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AM4" s="4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
@@ -1201,10 +1101,10 @@
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -1218,73 +1118,34 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>76</v>
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
       </c>
       <c r="AD5">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AG5">
         <v>2032500</v>
       </c>
-      <c r="AI5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
       <c r="AR5" s="4"/>
-      <c r="AS5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="AT5" s="3"/>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1297,73 +1158,34 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" t="s">
-        <v>50</v>
-      </c>
-      <c r="X6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>86</v>
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
       </c>
       <c r="AD6">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AG6">
         <v>2032500</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
-      <c r="AS6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="AT6" s="3"/>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1376,231 +1198,34 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="M7">
-        <v>28</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="W7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>96</v>
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
       </c>
       <c r="AD7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AG7">
         <v>2032500</v>
       </c>
-      <c r="AI7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
-      <c r="AS7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>1002</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8">
-        <v>29</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="W8" t="s">
-        <v>50</v>
-      </c>
-      <c r="X8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8">
-        <v>29</v>
-      </c>
-      <c r="AG8">
-        <v>2032500</v>
-      </c>
-      <c r="AI8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ8" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AM8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9">
-        <v>1002</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>115</v>
-      </c>
-      <c r="W9" t="s">
-        <v>50</v>
-      </c>
-      <c r="X9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD9">
-        <v>30</v>
-      </c>
-      <c r="AG9">
-        <v>2032500</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT9" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="AT7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C0B5A5-3C47-4B09-A527-2C939CAA004E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BD343-D248-49EF-BB62-121AC812EEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
   <sheets>
     <sheet name="generador_datos" sheetId="1" r:id="rId1"/>
+    <sheet name="mm02" sheetId="2" r:id="rId2"/>
+    <sheet name="xd02" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>filtrar</t>
   </si>
@@ -156,9 +158,6 @@
     <t>out_ped_comitente_i101</t>
   </si>
   <si>
-    <t>out_n_entrega</t>
-  </si>
-  <si>
     <t>out_n_factura</t>
   </si>
   <si>
@@ -174,121 +173,156 @@
     <t>strFechaCreado</t>
   </si>
   <si>
-    <t>strNumPedidoSap</t>
-  </si>
-  <si>
     <t>strRefExterna</t>
   </si>
   <si>
     <t>SI</t>
   </si>
   <si>
-    <t>28.01.2020</t>
-  </si>
-  <si>
-    <t>10:11</t>
-  </si>
-  <si>
-    <t>LOTE1197</t>
-  </si>
-  <si>
-    <t>20200128</t>
-  </si>
-  <si>
-    <t>20210919</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>R0000-00001197</t>
+    <t>strNumPedidoSap89</t>
+  </si>
+  <si>
+    <t>strNumPedidoSap101</t>
+  </si>
+  <si>
+    <t>strNumPedidoSap106</t>
+  </si>
+  <si>
+    <t>refExternaRemito</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>20191129</t>
-  </si>
-  <si>
-    <t>3407799</t>
-  </si>
-  <si>
-    <t>1002;LOTE1197;20210919;DESC LOTE1197;LOTE1197;N;LOTE1197;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001197;FNET;FNET;02;ZRET;20200128;;1800000122;20200128;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1197;;;;;0000-00001197;1197;20200128;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200128002C001CLIENTESAPNROOC032202001281002              10           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001280002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200128NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  </t>
-  </si>
-  <si>
-    <t>10:22</t>
-  </si>
-  <si>
-    <t>LOTE1199</t>
-  </si>
-  <si>
-    <t>1199</t>
-  </si>
-  <si>
-    <t>R0000-00001199</t>
-  </si>
-  <si>
-    <t>3407820</t>
-  </si>
-  <si>
-    <t>1002;LOTE1199;20210919;DESC LOTE1199;LOTE1199;N;LOTE1199;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001199;FNET;FNET;02;ZRET;20200128;;1800000122;20200128;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1199;;;;;0000-00001199;1199;20200128;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200128002C001CLIENTESAPNROOC032202001281002              11           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001280002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200128NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  </t>
+    <t>03:10</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>10.02.2020</t>
+  </si>
+  <si>
+    <t>LOTE1363</t>
+  </si>
+  <si>
+    <t>20200210</t>
+  </si>
+  <si>
+    <t>20211002</t>
+  </si>
+  <si>
+    <t>1363</t>
+  </si>
+  <si>
+    <t>R0000-00001363</t>
+  </si>
+  <si>
+    <t>20191212</t>
+  </si>
+  <si>
+    <t>3409542</t>
+  </si>
+  <si>
+    <t>1002;LOTE1363;20211002;DESC LOTE1363;LOTE1363;N;LOTE1363;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001363;FNET;FNET;02;ZRET;20200210;;1800000122;20200210;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1363;;;;;0000-00001363;1363;20200210;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200210002C001CLIENTESAPNROOC032202002101002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002100002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200210NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  </t>
+  </si>
+  <si>
+    <t>LOTE1365</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>R0000-00001365</t>
+  </si>
+  <si>
+    <t>3409563</t>
+  </si>
+  <si>
+    <t>1002;LOTE1365;20211002;DESC LOTE1365;LOTE1365;N;LOTE1365;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001365;FNET;FNET;02;ZRET;20200210;;1800000122;20200210;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1365;;;;;0000-00001365;1365;20200210;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200210002C001CLIENTESAPNROOC032202002101002              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002100002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
+202002100002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200210NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  
+VTD02    133198CLIENTESAPC00120200210NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  </t>
+  </si>
+  <si>
+    <t>0001128920</t>
+  </si>
+  <si>
+    <t>0001128919</t>
+  </si>
+  <si>
+    <t>0001128918</t>
+  </si>
+  <si>
+    <t>0001128923</t>
+  </si>
+  <si>
+    <t>0001128922</t>
+  </si>
+  <si>
+    <t>0001128921</t>
+  </si>
+  <si>
+    <t>02000000001363</t>
+  </si>
+  <si>
+    <t>4000006414</t>
+  </si>
+  <si>
+    <t>02000000001365</t>
+  </si>
+  <si>
+    <t>4000006415</t>
+  </si>
+  <si>
+    <t>out_n_entrega_89</t>
+  </si>
+  <si>
+    <t>out_n_entrega_101</t>
+  </si>
+  <si>
+    <t>out_n_entrega_106</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>16:20</t>
-  </si>
-  <si>
-    <t>LOTE1201</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>R0000-00001201</t>
-  </si>
-  <si>
-    <t>3407841</t>
-  </si>
-  <si>
-    <t>1002;LOTE1201;20210919;DESC LOTE1201;LOTE1201;N;LOTE1201;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001201;FNET;FNET;02;ZRET;20200128;;1800000122;20200128;08:00;16:00;20000;Remito electrónico Test;;;1002;12;C/U;LOTE1201;;;;;0000-00001201;1201;20200128;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200128002C001CLIENTESAPNROOC032202001281002              12           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202001280002073900PEDIDO                                                                          1002              12       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200128NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              12     816 0  </t>
+    <t>80871628</t>
+  </si>
+  <si>
+    <t>80871626</t>
+  </si>
+  <si>
+    <t>80871629</t>
+  </si>
+  <si>
+    <t>80871627</t>
   </si>
 </sst>
 </file>
@@ -343,12 +377,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,17 +703,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AT7"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AY11" sqref="AY11:AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="18.5703125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="16.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
@@ -703,28 +743,31 @@
     <col min="32" max="32" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="10" width="20.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="10" width="20.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="10" width="23.140625" collapsed="true"/>
     <col min="38" max="38" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="42" max="43" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="50" max="51" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -820,13 +863,13 @@
       <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="8" t="s">
         <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -836,75 +879,93 @@
         <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="AP1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
       </c>
       <c r="B2">
         <v>1002</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AD2">
         <v>10</v>
@@ -912,83 +973,102 @@
       <c r="AG2">
         <v>2032500</v>
       </c>
-      <c r="AI2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AI2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4">
-        <v>1128658</v>
-      </c>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" t="s">
-        <v>50</v>
-      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2" s="3"/>
       <c r="AT2" s="3" t="s">
-        <v>51</v>
+        <v>85</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1002</v>
       </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Z3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AD3">
         <v>11</v>
@@ -996,239 +1076,77 @@
       <c r="AG3">
         <v>2032500</v>
       </c>
-      <c r="AI3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AI3" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4">
-        <v>1128662</v>
-      </c>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" t="s">
-        <v>50</v>
-      </c>
+      <c r="AK3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS3" s="3"/>
       <c r="AT3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4">
-        <v>1002</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4">
-        <v>12</v>
-      </c>
-      <c r="AG4">
-        <v>2032500</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5">
-        <v>1002</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M5">
-        <v>13</v>
-      </c>
-      <c r="O5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD5">
-        <v>13</v>
-      </c>
-      <c r="AG5">
-        <v>2032500</v>
-      </c>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AT5" s="3"/>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>1002</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="O6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD6">
-        <v>14</v>
-      </c>
-      <c r="AG6">
-        <v>2032500</v>
-      </c>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AT6" s="3"/>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>1002</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="O7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD7">
-        <v>15</v>
-      </c>
-      <c r="AG7">
-        <v>2032500</v>
-      </c>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AT7" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF89BE5-456F-4275-8677-487AFC1C01B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF51992A-29F9-430C-ADF2-09C7754697EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BD343-D248-49EF-BB62-121AC812EEB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FCC371-12C2-4308-90FE-7F636ED7ADA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
   <si>
     <t>filtrar</t>
   </si>
@@ -194,135 +194,382 @@
     <t>02</t>
   </si>
   <si>
+    <t>out_n_entrega_89</t>
+  </si>
+  <si>
+    <t>out_n_entrega_101</t>
+  </si>
+  <si>
+    <t>out_n_entrega_106</t>
+  </si>
+  <si>
+    <t>ingreso_123</t>
+  </si>
+  <si>
+    <t>param_material</t>
+  </si>
+  <si>
+    <t>param_cliente</t>
+  </si>
+  <si>
+    <t>egreso_125</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>03:10</t>
-  </si>
-  <si>
-    <t>03:20</t>
-  </si>
-  <si>
-    <t>10.02.2020</t>
-  </si>
-  <si>
-    <t>LOTE1363</t>
-  </si>
-  <si>
-    <t>20200210</t>
-  </si>
-  <si>
-    <t>20211002</t>
-  </si>
-  <si>
-    <t>1363</t>
-  </si>
-  <si>
-    <t>R0000-00001363</t>
-  </si>
-  <si>
-    <t>20191212</t>
-  </si>
-  <si>
-    <t>3409542</t>
-  </si>
-  <si>
-    <t>1002;LOTE1363;20211002;DESC LOTE1363;LOTE1363;N;LOTE1363;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001363;FNET;FNET;02;ZRET;20200210;;1800000122;20200210;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1363;;;;;0000-00001363;1363;20200210;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200210002C001CLIENTESAPNROOC032202002101002              10           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002100002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200210NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  </t>
-  </si>
-  <si>
-    <t>LOTE1365</t>
-  </si>
-  <si>
-    <t>1365</t>
-  </si>
-  <si>
-    <t>R0000-00001365</t>
-  </si>
-  <si>
-    <t>3409563</t>
-  </si>
-  <si>
-    <t>1002;LOTE1365;20211002;DESC LOTE1365;LOTE1365;N;LOTE1365;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001365;FNET;FNET;02;ZRET;20200210;;1800000122;20200210;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1365;;;;;0000-00001365;1365;20200210;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200210002C001CLIENTESAPNROOC032202002101002              11           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002100002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
-202002100002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200210NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  
-VTD02    133198CLIENTESAPC00120200210NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  </t>
-  </si>
-  <si>
-    <t>0001128920</t>
-  </si>
-  <si>
-    <t>0001128919</t>
-  </si>
-  <si>
-    <t>0001128918</t>
-  </si>
-  <si>
-    <t>0001128923</t>
-  </si>
-  <si>
-    <t>0001128922</t>
-  </si>
-  <si>
-    <t>0001128921</t>
-  </si>
-  <si>
-    <t>02000000001363</t>
-  </si>
-  <si>
-    <t>4000006414</t>
-  </si>
-  <si>
-    <t>02000000001365</t>
-  </si>
-  <si>
-    <t>4000006415</t>
-  </si>
-  <si>
-    <t>out_n_entrega_89</t>
-  </si>
-  <si>
-    <t>out_n_entrega_101</t>
-  </si>
-  <si>
-    <t>out_n_entrega_106</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>80871628</t>
-  </si>
-  <si>
-    <t>80871626</t>
-  </si>
-  <si>
-    <t>80871629</t>
-  </si>
-  <si>
-    <t>80871627</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>19.02.2020</t>
+  </si>
+  <si>
+    <t>11:04</t>
+  </si>
+  <si>
+    <t>LOTE1423</t>
+  </si>
+  <si>
+    <t>20200219</t>
+  </si>
+  <si>
+    <t>20211011</t>
+  </si>
+  <si>
+    <t>1423</t>
+  </si>
+  <si>
+    <t>0000R00001423</t>
+  </si>
+  <si>
+    <t>20191221</t>
+  </si>
+  <si>
+    <t>3410168</t>
+  </si>
+  <si>
+    <t>1002;LOTE1423;20211011;DESC LOTE1423;LOTE1423;N;LOTE1423;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001423;FNET;FNET;02;ZRET;20200219;;1800000122;20200219;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1423;;;;;0000-00001423;1423;20200219;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200219002C001CLIENTESAPNROOC032202002191002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002190002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200219NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t>11:14</t>
+  </si>
+  <si>
+    <t>LOTE1425</t>
+  </si>
+  <si>
+    <t>1425</t>
+  </si>
+  <si>
+    <t>0000R00001425</t>
+  </si>
+  <si>
+    <t>3410189</t>
+  </si>
+  <si>
+    <t>1002;LOTE1425;20211011;DESC LOTE1425;LOTE1425;N;LOTE1425;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001425;FNET;FNET;02;ZRET;20200219;;1800000122;20200219;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1425;;;;;0000-00001425;1425;20200219;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200219002C001CLIENTESAPNROOC032202002191002              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002190002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
+202002190002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200219NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
+VTD02    133198CLIENTESAPC00120200219NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   </t>
+  </si>
+  <si>
+    <t>11:24</t>
+  </si>
+  <si>
+    <t>LOTE1427</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>0000R00001427</t>
+  </si>
+  <si>
+    <t>3410210</t>
+  </si>
+  <si>
+    <t>1004;LOTE1427;20211011;DESC LOTE1427;LOTE1427;N;LOTE1427;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001427;FNET;FNET;02;ZRET;20200219;;1800000122;20200219;08:00;16:00;20000;Remito electrónico Test;;;1004;12;C/U;LOTE1427;;;;;0000-00001427;1427;20200219;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200219002C001CLIENTESAPNROOC032202002191004              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002190002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
+202002190002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE 
+202002190002073900PEDIDO                                                                          1004              12       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200219NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
+VTD02    133198CLIENTESAPC00120200219NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   
+VTD02    133198CLIENTESAPC00120200219NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1004              12     816 0  011   </t>
+  </si>
+  <si>
+    <t>0001129310</t>
+  </si>
+  <si>
+    <t>0001129309</t>
+  </si>
+  <si>
+    <t>0001129311</t>
+  </si>
+  <si>
+    <t>0001129314</t>
+  </si>
+  <si>
+    <t>0001129313</t>
+  </si>
+  <si>
+    <t>0001129312</t>
+  </si>
+  <si>
+    <t>0001129315</t>
+  </si>
+  <si>
+    <t>0001129316</t>
+  </si>
+  <si>
+    <t>0001129317</t>
+  </si>
+  <si>
+    <t>02000000001423</t>
+  </si>
+  <si>
+    <t>4000006442</t>
+  </si>
+  <si>
+    <t>02000000001425</t>
+  </si>
+  <si>
+    <t>4000006443</t>
+  </si>
+  <si>
+    <t>02000000001427</t>
+  </si>
+  <si>
+    <t>4000006444</t>
+  </si>
+  <si>
+    <t>80871710</t>
+  </si>
+  <si>
+    <t>80871709</t>
+  </si>
+  <si>
+    <t>80871706</t>
+  </si>
+  <si>
+    <t>80871712</t>
+  </si>
+  <si>
+    <t>80871711</t>
+  </si>
+  <si>
+    <t>80871707</t>
+  </si>
+  <si>
+    <t>80871713</t>
+  </si>
+  <si>
+    <t>80871714</t>
+  </si>
+  <si>
+    <t>80871708</t>
+  </si>
+  <si>
+    <t>20.02.2020</t>
+  </si>
+  <si>
+    <t>10:15</t>
+  </si>
+  <si>
+    <t>LOTE1429</t>
+  </si>
+  <si>
+    <t>20200220</t>
+  </si>
+  <si>
+    <t>20211012</t>
+  </si>
+  <si>
+    <t>1429</t>
+  </si>
+  <si>
+    <t>0000R00001429</t>
+  </si>
+  <si>
+    <t>20191222</t>
+  </si>
+  <si>
+    <t>3410231</t>
+  </si>
+  <si>
+    <t>1002;LOTE1429;20211012;DESC LOTE1429;LOTE1429;N;LOTE1429;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001429;FNET;FNET;02;ZRET;20200220;;1800000122;20200220;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1429;;;;;0000-00001429;1429;20200220;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200220002C001CLIENTESAPNROOC032202002201002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002200002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200220NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>LOTE1431</t>
+  </si>
+  <si>
+    <t>1431</t>
+  </si>
+  <si>
+    <t>0000R00001431</t>
+  </si>
+  <si>
+    <t>3410252</t>
+  </si>
+  <si>
+    <t>1002;LOTE1431;20211012;DESC LOTE1431;LOTE1431;N;LOTE1431;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001431;FNET;FNET;02;ZRET;20200220;;1800000122;20200220;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1431;;;;;0000-00001431;1431;20200220;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200220002C001CLIENTESAPNROOC032202002201002              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002200002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
+202002200002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200220NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
+VTD02    133198CLIENTESAPC00120200220NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   </t>
+  </si>
+  <si>
+    <t>10:35</t>
+  </si>
+  <si>
+    <t>LOTE1433</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>0000R00001433</t>
+  </si>
+  <si>
+    <t>3410273</t>
+  </si>
+  <si>
+    <t>1004;LOTE1433;20211012;DESC LOTE1433;LOTE1433;N;LOTE1433;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000001433;FNET;FNET;02;ZRET;20200220;;1800000122;20200220;08:00;16:00;20000;Remito electrónico Test;;;1004;12;C/U;LOTE1433;;;;;0000-00001433;1433;20200220;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200220002C001CLIENTESAPNROOC032202002201004              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202002200002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
+202002200002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE 
+202002200002073900PEDIDO                                                                          1004              12       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200220NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
+VTD02    133198CLIENTESAPC00120200220NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   
+VTD02    133198CLIENTESAPC00120200220NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1004              12     816 0  011   </t>
+  </si>
+  <si>
+    <t>0001129355</t>
+  </si>
+  <si>
+    <t>0001129353</t>
+  </si>
+  <si>
+    <t>0001129354</t>
+  </si>
+  <si>
+    <t>0001129358</t>
+  </si>
+  <si>
+    <t>0001129356</t>
+  </si>
+  <si>
+    <t>0001129357</t>
+  </si>
+  <si>
+    <t>0001129361</t>
+  </si>
+  <si>
+    <t>0001129359</t>
+  </si>
+  <si>
+    <t>0001129360</t>
+  </si>
+  <si>
+    <t>02000000001429</t>
+  </si>
+  <si>
+    <t>4000006445</t>
+  </si>
+  <si>
+    <t>02000000001431</t>
+  </si>
+  <si>
+    <t>4000006446</t>
+  </si>
+  <si>
+    <t>02000000001433</t>
+  </si>
+  <si>
+    <t>4000006447</t>
+  </si>
+  <si>
+    <t>80871747</t>
+  </si>
+  <si>
+    <t>80871748</t>
+  </si>
+  <si>
+    <t>80871749</t>
+  </si>
+  <si>
+    <t>80871750</t>
+  </si>
+  <si>
+    <t>80871751</t>
+  </si>
+  <si>
+    <t>80871752</t>
   </si>
 </sst>
 </file>
@@ -377,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -389,6 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AY11" sqref="AY11:AY12"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,9 +1006,11 @@
     <col min="48" max="48" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="49" max="49" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="50" max="51" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -891,7 +1141,7 @@
         <v>50</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>41</v>
@@ -909,13 +1159,19 @@
         <v>51</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>90</v>
+        <v>55</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -935,37 +1191,37 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Y2" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="Z2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="AD2">
         <v>10</v>
@@ -974,51 +1230,60 @@
         <v>2032500</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="4" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="AR2" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="AU2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>54</v>
+        <v>120</v>
+      </c>
+      <c r="AV2" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>84</v>
+        <v>163</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>170</v>
       </c>
       <c r="AY2" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1038,37 +1303,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="L3" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="M3">
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="Z3" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="AD3">
         <v>11</v>
@@ -1077,48 +1342,169 @@
         <v>2032500</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="AN3" s="3"/>
       <c r="AO3" s="4" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="AR3" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="AU3" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>86</v>
+        <v>165</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>172</v>
       </c>
       <c r="AY3" t="s">
-        <v>95</v>
+        <v>116</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>1004</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>60</v>
+      </c>
+      <c r="X4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD4">
+        <v>12</v>
+      </c>
+      <c r="AG4">
+        <v>2032500</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1129,24 +1515,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF89BE5-456F-4275-8677-487AFC1C01B9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1572</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF51992A-29F9-430C-ADF2-09C7754697EB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5196903</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FCC371-12C2-4308-90FE-7F636ED7ADA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7848FD-DC35-4875-B10A-8EEF4095C827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="mm02" sheetId="2" r:id="rId2"/>
     <sheet name="xd02" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="531">
   <si>
     <t>filtrar</t>
   </si>
@@ -218,358 +218,1414 @@
     <t>1</t>
   </si>
   <si>
+    <t>80871706</t>
+  </si>
+  <si>
+    <t>80871707</t>
+  </si>
+  <si>
+    <t>80871708</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>strPedWeb089</t>
+  </si>
+  <si>
+    <t>strPedWeb101</t>
+  </si>
+  <si>
+    <t>strPedWeb106</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>19.02.2020</t>
-  </si>
-  <si>
-    <t>11:04</t>
-  </si>
-  <si>
-    <t>LOTE1423</t>
-  </si>
-  <si>
-    <t>20200219</t>
-  </si>
-  <si>
-    <t>20211011</t>
-  </si>
-  <si>
-    <t>1423</t>
-  </si>
-  <si>
-    <t>0000R00001423</t>
-  </si>
-  <si>
-    <t>20191221</t>
-  </si>
-  <si>
-    <t>3410168</t>
-  </si>
-  <si>
-    <t>1002;LOTE1423;20211011;DESC LOTE1423;LOTE1423;N;LOTE1423;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001423;FNET;FNET;02;ZRET;20200219;;1800000122;20200219;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1423;;;;;0000-00001423;1423;20200219;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200219002C001CLIENTESAPNROOC032202002191002              10           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002190002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200219NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
-  </si>
-  <si>
-    <t>11:14</t>
-  </si>
-  <si>
-    <t>LOTE1425</t>
-  </si>
-  <si>
-    <t>1425</t>
-  </si>
-  <si>
-    <t>0000R00001425</t>
-  </si>
-  <si>
-    <t>3410189</t>
-  </si>
-  <si>
-    <t>1002;LOTE1425;20211011;DESC LOTE1425;LOTE1425;N;LOTE1425;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001425;FNET;FNET;02;ZRET;20200219;;1800000122;20200219;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1425;;;;;0000-00001425;1425;20200219;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200219002C001CLIENTESAPNROOC032202002191002              11           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002190002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
-202002190002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200219NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
-VTD02    133198CLIENTESAPC00120200219NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   </t>
-  </si>
-  <si>
-    <t>11:24</t>
-  </si>
-  <si>
-    <t>LOTE1427</t>
-  </si>
-  <si>
-    <t>1427</t>
-  </si>
-  <si>
-    <t>0000R00001427</t>
-  </si>
-  <si>
-    <t>3410210</t>
-  </si>
-  <si>
-    <t>1004;LOTE1427;20211011;DESC LOTE1427;LOTE1427;N;LOTE1427;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001427;FNET;FNET;02;ZRET;20200219;;1800000122;20200219;08:00;16:00;20000;Remito electrónico Test;;;1004;12;C/U;LOTE1427;;;;;0000-00001427;1427;20200219;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200219002C001CLIENTESAPNROOC032202002191004              12           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002190002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
-202002190002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE 
-202002190002073900PEDIDO                                                                          1004              12       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200219NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
-VTD02    133198CLIENTESAPC00120200219NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   
-VTD02    133198CLIENTESAPC00120200219NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1004              12     816 0  011   </t>
-  </si>
-  <si>
-    <t>0001129310</t>
-  </si>
-  <si>
-    <t>0001129309</t>
-  </si>
-  <si>
-    <t>0001129311</t>
-  </si>
-  <si>
-    <t>0001129314</t>
-  </si>
-  <si>
-    <t>0001129313</t>
-  </si>
-  <si>
-    <t>0001129312</t>
-  </si>
-  <si>
-    <t>0001129315</t>
-  </si>
-  <si>
-    <t>0001129316</t>
-  </si>
-  <si>
-    <t>0001129317</t>
-  </si>
-  <si>
-    <t>02000000001423</t>
-  </si>
-  <si>
-    <t>4000006442</t>
-  </si>
-  <si>
-    <t>02000000001425</t>
-  </si>
-  <si>
-    <t>4000006443</t>
-  </si>
-  <si>
-    <t>02000000001427</t>
-  </si>
-  <si>
-    <t>4000006444</t>
-  </si>
-  <si>
-    <t>80871710</t>
-  </si>
-  <si>
-    <t>80871709</t>
-  </si>
-  <si>
-    <t>80871706</t>
-  </si>
-  <si>
-    <t>80871712</t>
-  </si>
-  <si>
-    <t>80871711</t>
-  </si>
-  <si>
-    <t>80871707</t>
-  </si>
-  <si>
-    <t>80871713</t>
-  </si>
-  <si>
-    <t>80871714</t>
-  </si>
-  <si>
-    <t>80871708</t>
-  </si>
-  <si>
-    <t>20.02.2020</t>
-  </si>
-  <si>
-    <t>10:15</t>
-  </si>
-  <si>
-    <t>LOTE1429</t>
-  </si>
-  <si>
-    <t>20200220</t>
-  </si>
-  <si>
-    <t>20211012</t>
-  </si>
-  <si>
-    <t>1429</t>
-  </si>
-  <si>
-    <t>0000R00001429</t>
-  </si>
-  <si>
-    <t>20191222</t>
-  </si>
-  <si>
-    <t>3410231</t>
-  </si>
-  <si>
-    <t>1002;LOTE1429;20211012;DESC LOTE1429;LOTE1429;N;LOTE1429;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001429;FNET;FNET;02;ZRET;20200220;;1800000122;20200220;08:00;16:00;20000;Remito electrónico Test;;;1002;10;C/U;LOTE1429;;;;;0000-00001429;1429;20200220;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200220002C001CLIENTESAPNROOC032202002201002              10           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002200002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200220NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
-  </si>
-  <si>
-    <t>10:25</t>
-  </si>
-  <si>
-    <t>LOTE1431</t>
-  </si>
-  <si>
-    <t>1431</t>
-  </si>
-  <si>
-    <t>0000R00001431</t>
-  </si>
-  <si>
-    <t>3410252</t>
-  </si>
-  <si>
-    <t>1002;LOTE1431;20211012;DESC LOTE1431;LOTE1431;N;LOTE1431;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001431;FNET;FNET;02;ZRET;20200220;;1800000122;20200220;08:00;16:00;20000;Remito electrónico Test;;;1002;11;C/U;LOTE1431;;;;;0000-00001431;1431;20200220;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200220002C001CLIENTESAPNROOC032202002201002              11           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002200002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
-202002200002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200220NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
-VTD02    133198CLIENTESAPC00120200220NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   </t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>LOTE1433</t>
-  </si>
-  <si>
-    <t>1433</t>
-  </si>
-  <si>
-    <t>0000R00001433</t>
-  </si>
-  <si>
-    <t>3410273</t>
-  </si>
-  <si>
-    <t>1004;LOTE1433;20211012;DESC LOTE1433;LOTE1433;N;LOTE1433;;AR;;;;;;N;;;210;20181103;;N;</t>
-  </si>
-  <si>
-    <t>02000000001433;FNET;FNET;02;ZRET;20200220;;1800000122;20200220;08:00;16:00;20000;Remito electrónico Test;;;1004;12;C/U;LOTE1433;;;;;0000-00001433;1433;20200220;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDIDO            20200220002C001CLIENTESAPNROOC032202002201004              12           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202002200002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE 
-202002200002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE 
-202002200002073900PEDIDO                                                                          1004              12       139                         02        03      NUMEROWE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VTD02    133198CLIENTESAPC00120200220NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   
-VTD02    133198CLIENTESAPC00120200220NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   
-VTD02    133198CLIENTESAPC00120200220NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1004              12     816 0  011   </t>
-  </si>
-  <si>
-    <t>0001129355</t>
-  </si>
-  <si>
-    <t>0001129353</t>
-  </si>
-  <si>
-    <t>0001129354</t>
-  </si>
-  <si>
-    <t>0001129358</t>
-  </si>
-  <si>
-    <t>0001129356</t>
-  </si>
-  <si>
-    <t>0001129357</t>
-  </si>
-  <si>
-    <t>0001129361</t>
-  </si>
-  <si>
-    <t>0001129359</t>
-  </si>
-  <si>
-    <t>0001129360</t>
-  </si>
-  <si>
-    <t>02000000001429</t>
-  </si>
-  <si>
-    <t>4000006445</t>
-  </si>
-  <si>
-    <t>02000000001431</t>
-  </si>
-  <si>
-    <t>4000006446</t>
-  </si>
-  <si>
-    <t>02000000001433</t>
-  </si>
-  <si>
-    <t>4000006447</t>
-  </si>
-  <si>
-    <t>80871747</t>
-  </si>
-  <si>
-    <t>80871748</t>
-  </si>
-  <si>
-    <t>80871749</t>
-  </si>
-  <si>
-    <t>80871750</t>
-  </si>
-  <si>
-    <t>80871751</t>
-  </si>
-  <si>
-    <t>80871752</t>
+    <t>4000006714</t>
+  </si>
+  <si>
+    <t>06000000002003</t>
+  </si>
+  <si>
+    <t>4000006716</t>
+  </si>
+  <si>
+    <t>06000000002007</t>
+  </si>
+  <si>
+    <t>4000006718</t>
+  </si>
+  <si>
+    <t>06000000002011</t>
+  </si>
+  <si>
+    <t>4000006720</t>
+  </si>
+  <si>
+    <t>06000000002015</t>
+  </si>
+  <si>
+    <t>4000006722</t>
+  </si>
+  <si>
+    <t>80871937</t>
+  </si>
+  <si>
+    <t>80871938</t>
+  </si>
+  <si>
+    <t>80871939</t>
+  </si>
+  <si>
+    <t>80871940</t>
+  </si>
+  <si>
+    <t>80871941</t>
+  </si>
+  <si>
+    <t>80871942</t>
+  </si>
+  <si>
+    <t>80871943</t>
+  </si>
+  <si>
+    <t>80871944</t>
+  </si>
+  <si>
+    <t>80871945</t>
+  </si>
+  <si>
+    <t>80871946</t>
+  </si>
+  <si>
+    <t>80871947</t>
+  </si>
+  <si>
+    <t>80871948</t>
+  </si>
+  <si>
+    <t>80871949</t>
+  </si>
+  <si>
+    <t>80871950</t>
+  </si>
+  <si>
+    <t>80871951</t>
+  </si>
+  <si>
+    <t>80871952</t>
+  </si>
+  <si>
+    <t>80871953</t>
+  </si>
+  <si>
+    <t>80871954</t>
+  </si>
+  <si>
+    <t>80871955</t>
+  </si>
+  <si>
+    <t>80871956</t>
+  </si>
+  <si>
+    <t>80871957</t>
+  </si>
+  <si>
+    <t>80871958</t>
+  </si>
+  <si>
+    <t>80871959</t>
+  </si>
+  <si>
+    <t>80871960</t>
+  </si>
+  <si>
+    <t>80871961</t>
+  </si>
+  <si>
+    <t>80871962</t>
+  </si>
+  <si>
+    <t>80871963</t>
+  </si>
+  <si>
+    <t>80871964</t>
+  </si>
+  <si>
+    <t>80871965</t>
+  </si>
+  <si>
+    <t>80871966</t>
+  </si>
+  <si>
+    <t>80871967</t>
+  </si>
+  <si>
+    <t>80871968</t>
+  </si>
+  <si>
+    <t>80871969</t>
+  </si>
+  <si>
+    <t>80871970</t>
+  </si>
+  <si>
+    <t>80871971</t>
+  </si>
+  <si>
+    <t>80871972</t>
+  </si>
+  <si>
+    <t>80871973</t>
+  </si>
+  <si>
+    <t>80871974</t>
+  </si>
+  <si>
+    <t>80871975</t>
+  </si>
+  <si>
+    <t>80871976</t>
+  </si>
+  <si>
+    <t>80871977</t>
+  </si>
+  <si>
+    <t>80871978</t>
+  </si>
+  <si>
+    <t>80871979</t>
+  </si>
+  <si>
+    <t>80871980</t>
+  </si>
+  <si>
+    <t>80871981</t>
+  </si>
+  <si>
+    <t>80871982</t>
+  </si>
+  <si>
+    <t>80871983</t>
+  </si>
+  <si>
+    <t>80871984</t>
+  </si>
+  <si>
+    <t>05.03.2020</t>
+  </si>
+  <si>
+    <t>05:14</t>
+  </si>
+  <si>
+    <t>LOTE2017</t>
+  </si>
+  <si>
+    <t>20200305</t>
+  </si>
+  <si>
+    <t>20211026</t>
+  </si>
+  <si>
+    <t>0000R00002017</t>
+  </si>
+  <si>
+    <t>20200105</t>
+  </si>
+  <si>
+    <t>3416355</t>
+  </si>
+  <si>
+    <t>1002;LOTE2017;20211026;DESC LOTE2017;LOTE2017;N;LOTE2017;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002017;FNET;FNET;02;ZRET;20200305;;1800000122;20200305;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE2017;;;;;0000-00002017;2017;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200305NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416365 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416375 </t>
+  </si>
+  <si>
+    <t>LOTE2021</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>0000R00002021</t>
+  </si>
+  <si>
+    <t>3416397</t>
+  </si>
+  <si>
+    <t>1002;LOTE2021;20211026;DESC LOTE2021;LOTE2021;N;LOTE2021;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002021;FNET;FNET;02;ZRET;20200305;;1800000122;20200305;08:00;16:00;20000;Remito electrónico Test;;;1002;33;C/U;LOTE2021;;;;;0000-00002021;2021;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051002              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1002              11       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200305NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416407 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416417 </t>
+  </si>
+  <si>
+    <t>LOTE2025</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>0000R00002025</t>
+  </si>
+  <si>
+    <t>3416439</t>
+  </si>
+  <si>
+    <t>1004;LOTE2025;20211026;DESC LOTE2025;LOTE2025;N;LOTE2025;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002025;FNET;FNET;02;ZRET;20200305;;1800000122;20200305;08:00;16:00;20000;Remito electrónico Test;;;1004;36;C/U;LOTE2025;;;;;0000-00002025;2025;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051004              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1004              12       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1004  133198CLIENTESAPC00120200305NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1004              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416449 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416459 </t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>LOTE2029</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>0000R00002029</t>
+  </si>
+  <si>
+    <t>3416481</t>
+  </si>
+  <si>
+    <t>1002;LOTE2029;20211026;DESC LOTE2029;LOTE2029;N;LOTE2029;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002029;FNET;FNET;02;ZRET;20200305;;1800000122;20200305;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE2029;;;;;0000-00002029;2029;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416491 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416501 </t>
+  </si>
+  <si>
+    <t>LOTE2033</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>0000R00002033</t>
+  </si>
+  <si>
+    <t>3416523</t>
+  </si>
+  <si>
+    <t>1002;LOTE2033;20211026;DESC LOTE2033;LOTE2033;N;LOTE2033;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002033;FNET;FNET;02;ZRET;20200305;;1800000122;20200305;08:00;16:00;20000;Remito electrónico Test;;;1002;33;C/U;LOTE2033;;;;;0000-00002033;2033;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416533 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416543 </t>
+  </si>
+  <si>
+    <t>LOTE2037</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>0000R00002037</t>
+  </si>
+  <si>
+    <t>3416565</t>
+  </si>
+  <si>
+    <t>1004;LOTE2037;20211026;DESC LOTE2037;LOTE2037;N;LOTE2037;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002037;FNET;FNET;02;ZRET;20200305;;1800000122;20200305;08:00;16:00;20000;Remito electrónico Test;;;1004;36;C/U;LOTE2037;;;;;0000-00002037;2037;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416575 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416585 </t>
+  </si>
+  <si>
+    <t>LOTE2041</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>0000R00002041</t>
+  </si>
+  <si>
+    <t>3416607</t>
+  </si>
+  <si>
+    <t>1137;LOTE2041;20211026;DESC LOTE2041;LOTE2041;N;LOTE2041;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002041;FNET;FNET;03;ZRET;20200305;;1800000033;20200305;08:00;16:00;20000;Remito electrónico Test;;;1137;30;C/U;LOTE2041;;;;;0000-00002041;2041;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051137              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1137              10       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200305NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416617 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416627 </t>
+  </si>
+  <si>
+    <t>LOTE2045</t>
+  </si>
+  <si>
+    <t>2045</t>
+  </si>
+  <si>
+    <t>0000R00002045</t>
+  </si>
+  <si>
+    <t>3416649</t>
+  </si>
+  <si>
+    <t>1137;LOTE2045;20211026;DESC LOTE2045;LOTE2045;N;LOTE2045;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002045;FNET;FNET;03;ZRET;20200305;;1800000033;20200305;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE2045;;;;;0000-00002045;2045;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051137              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1137              11       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200305NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416659 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416669 </t>
+  </si>
+  <si>
+    <t>LOTE2049</t>
+  </si>
+  <si>
+    <t>2049</t>
+  </si>
+  <si>
+    <t>0000R00002049</t>
+  </si>
+  <si>
+    <t>3416691</t>
+  </si>
+  <si>
+    <t>1137;LOTE2049;20211026;DESC LOTE2049;LOTE2049;N;LOTE2049;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002049;FNET;FNET;03;ZRET;20200305;;1800000033;20200305;08:00;16:00;20000;Remito electrónico Test;;;1137;36;C/U;LOTE2049;;;;;0000-00002049;2049;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051137              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1137              12       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200305NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416701 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416711 </t>
+  </si>
+  <si>
+    <t>05:16</t>
+  </si>
+  <si>
+    <t>LOTE2053</t>
+  </si>
+  <si>
+    <t>2053</t>
+  </si>
+  <si>
+    <t>0000R00002053</t>
+  </si>
+  <si>
+    <t>3416733</t>
+  </si>
+  <si>
+    <t>1137;LOTE2053;20211026;DESC LOTE2053;LOTE2053;N;LOTE2053;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002053;FNET;FNET;03;ZRET;20200305;;1800000033;20200305;08:00;16:00;20000;Remito electrónico Test;;;1137;30;C/U;LOTE2053;;;;;0000-00002053;2053;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416743 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416753 </t>
+  </si>
+  <si>
+    <t>LOTE2057</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
+    <t>0000R00002057</t>
+  </si>
+  <si>
+    <t>3416775</t>
+  </si>
+  <si>
+    <t>1137;LOTE2057;20211026;DESC LOTE2057;LOTE2057;N;LOTE2057;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002057;FNET;FNET;03;ZRET;20200305;;1800000033;20200305;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE2057;;;;;0000-00002057;2057;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416785 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416795 </t>
+  </si>
+  <si>
+    <t>LOTE2061</t>
+  </si>
+  <si>
+    <t>2061</t>
+  </si>
+  <si>
+    <t>0000R00002061</t>
+  </si>
+  <si>
+    <t>3416817</t>
+  </si>
+  <si>
+    <t>1137;LOTE2061;20211026;DESC LOTE2061;LOTE2061;N;LOTE2061;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002061;FNET;FNET;03;ZRET;20200305;;1800000033;20200305;08:00;16:00;20000;Remito electrónico Test;;;1137;36;C/U;LOTE2061;;;;;0000-00002061;2061;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416827 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416837 </t>
+  </si>
+  <si>
+    <t>LOTE2065</t>
+  </si>
+  <si>
+    <t>2065</t>
+  </si>
+  <si>
+    <t>0000R00002065</t>
+  </si>
+  <si>
+    <t>3416859</t>
+  </si>
+  <si>
+    <t>1568;LOTE2065;20211026;DESC LOTE2065;LOTE2065;N;LOTE2065;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002065;FNET;FNET;05;ZRET;20200305;;1800000042;20200305;08:00;16:00;20000;Remito electrónico Test;;;1568;30;C/U;LOTE2065;;;;;0000-00002065;2065;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051568              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1568              10       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200305NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416869 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416879 </t>
+  </si>
+  <si>
+    <t>LOTE2069</t>
+  </si>
+  <si>
+    <t>2069</t>
+  </si>
+  <si>
+    <t>0000R00002069</t>
+  </si>
+  <si>
+    <t>3416901</t>
+  </si>
+  <si>
+    <t>1568;LOTE2069;20211026;DESC LOTE2069;LOTE2069;N;LOTE2069;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002069;FNET;FNET;05;ZRET;20200305;;1800000042;20200305;08:00;16:00;20000;Remito electrónico Test;;;1568;33;C/U;LOTE2069;;;;;0000-00002069;2069;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051568              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1568              11       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200305NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416911 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416921 </t>
+  </si>
+  <si>
+    <t>05:17</t>
+  </si>
+  <si>
+    <t>LOTE2073</t>
+  </si>
+  <si>
+    <t>2073</t>
+  </si>
+  <si>
+    <t>0000R00002073</t>
+  </si>
+  <si>
+    <t>3416943</t>
+  </si>
+  <si>
+    <t>1568;LOTE2073;20211026;DESC LOTE2073;LOTE2073;N;LOTE2073;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002073;FNET;FNET;05;ZRET;20200305;;1800000042;20200305;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE2073;;;;;0000-00002073;2073;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051568              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1568              12       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200305NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416953 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416963 </t>
+  </si>
+  <si>
+    <t>LOTE2077</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>0000R00002077</t>
+  </si>
+  <si>
+    <t>3416985</t>
+  </si>
+  <si>
+    <t>1568;LOTE2077;20211026;DESC LOTE2077;LOTE2077;N;LOTE2077;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002077;FNET;FNET;05;ZRET;20200305;;1800000042;20200305;08:00;16:00;20000;Remito electrónico Test;;;1568;30;C/U;LOTE2077;;;;;0000-00002077;2077;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3416995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417005 </t>
+  </si>
+  <si>
+    <t>LOTE2081</t>
+  </si>
+  <si>
+    <t>2081</t>
+  </si>
+  <si>
+    <t>0000R00002081</t>
+  </si>
+  <si>
+    <t>3417027</t>
+  </si>
+  <si>
+    <t>1568;LOTE2081;20211026;DESC LOTE2081;LOTE2081;N;LOTE2081;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002081;FNET;FNET;05;ZRET;20200305;;1800000042;20200305;08:00;16:00;20000;Remito electrónico Test;;;1568;33;C/U;LOTE2081;;;;;0000-00002081;2081;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417037 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417047 </t>
+  </si>
+  <si>
+    <t>LOTE2085</t>
+  </si>
+  <si>
+    <t>2085</t>
+  </si>
+  <si>
+    <t>0000R00002085</t>
+  </si>
+  <si>
+    <t>3417069</t>
+  </si>
+  <si>
+    <t>1568;LOTE2085;20211026;DESC LOTE2085;LOTE2085;N;LOTE2085;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002085;FNET;FNET;05;ZRET;20200305;;1800000042;20200305;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE2085;;;;;0000-00002085;2085;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417079 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417089 </t>
+  </si>
+  <si>
+    <t>LOTE2089</t>
+  </si>
+  <si>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>0000R00002089</t>
+  </si>
+  <si>
+    <t>3417111</t>
+  </si>
+  <si>
+    <t>1906;LOTE2089;20211026;DESC LOTE2089;LOTE2089;N;LOTE2089;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>06000000002089;FNET;FNET;06;ZRET;20200305;;1800000034;20200305;08:00;16:00;20000;Remito electrónico Test;;;1906;30;C/U;LOTE2089;;;;;0000-00002089;2089;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051906              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1906              10       139                         06        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1906  133198CLIENTESAPC00120200305NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1906              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417121 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417131 </t>
+  </si>
+  <si>
+    <t>LOTE2093</t>
+  </si>
+  <si>
+    <t>2093</t>
+  </si>
+  <si>
+    <t>0000R00002093</t>
+  </si>
+  <si>
+    <t>3417153</t>
+  </si>
+  <si>
+    <t>1906;LOTE2093;20211026;DESC LOTE2093;LOTE2093;N;LOTE2093;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>06000000002093;FNET;FNET;06;ZRET;20200305;;1800000034;20200305;08:00;16:00;20000;Remito electrónico Test;;;1906;33;C/U;LOTE2093;;;;;0000-00002093;2093;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051906              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1906              11       139                         06        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1906  133198CLIENTESAPC00120200305NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1906              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417163 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417173 </t>
+  </si>
+  <si>
+    <t>05:18</t>
+  </si>
+  <si>
+    <t>LOTE2097</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>0000R00002097</t>
+  </si>
+  <si>
+    <t>3417195</t>
+  </si>
+  <si>
+    <t>1906;LOTE2097;20211026;DESC LOTE2097;LOTE2097;N;LOTE2097;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>06000000002097;FNET;FNET;06;ZRET;20200305;;1800000034;20200305;08:00;16:00;20000;Remito electrónico Test;;;1906;36;C/U;LOTE2097;;;;;0000-00002097;2097;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200305002C001CLIENTESAPNROOC032202003051906              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003050002073900PEDIDO                                                                          1906              12       139                         06        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1906  133198CLIENTESAPC00120200305NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1906              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417205 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417215 </t>
+  </si>
+  <si>
+    <t>LOTE2101</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>0000R00002101</t>
+  </si>
+  <si>
+    <t>3417237</t>
+  </si>
+  <si>
+    <t>1906;LOTE2101;20211026;DESC LOTE2101;LOTE2101;N;LOTE2101;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>06000000002101;FNET;FNET;06;ZRET;20200305;;1800000034;20200305;08:00;16:00;20000;Remito electrónico Test;;;1906;30;C/U;LOTE2101;;;;;0000-00002101;2101;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417247 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417257 </t>
+  </si>
+  <si>
+    <t>LOTE2105</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>0000R00002105</t>
+  </si>
+  <si>
+    <t>3417279</t>
+  </si>
+  <si>
+    <t>1906;LOTE2105;20211026;DESC LOTE2105;LOTE2105;N;LOTE2105;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>06000000002105;FNET;FNET;06;ZRET;20200305;;1800000034;20200305;08:00;16:00;20000;Remito electrónico Test;;;1906;33;C/U;LOTE2105;;;;;0000-00002105;2105;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417289 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417299 </t>
+  </si>
+  <si>
+    <t>LOTE2109</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>0000R00002109</t>
+  </si>
+  <si>
+    <t>3417321</t>
+  </si>
+  <si>
+    <t>1906;LOTE2109;20211026;DESC LOTE2109;LOTE2109;N;LOTE2109;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>06000000002109;FNET;FNET;06;ZRET;20200305;;1800000034;20200305;08:00;16:00;20000;Remito electrónico Test;;;1906;36;C/U;LOTE2109;;;;;0000-00002109;2109;20200305;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417331 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3417341 </t>
+  </si>
+  <si>
+    <t>0001130010</t>
+  </si>
+  <si>
+    <t>0001130017</t>
+  </si>
+  <si>
+    <t>0001130018</t>
+  </si>
+  <si>
+    <t>0001130011</t>
+  </si>
+  <si>
+    <t>0001130022</t>
+  </si>
+  <si>
+    <t>0001130016</t>
+  </si>
+  <si>
+    <t>0001130013</t>
+  </si>
+  <si>
+    <t>0001130021</t>
+  </si>
+  <si>
+    <t>0001130014</t>
+  </si>
+  <si>
+    <t>0001130025</t>
+  </si>
+  <si>
+    <t>0001130049</t>
+  </si>
+  <si>
+    <t>0001130038</t>
+  </si>
+  <si>
+    <t>0001130027</t>
+  </si>
+  <si>
+    <t>0001130055</t>
+  </si>
+  <si>
+    <t>0001130039</t>
+  </si>
+  <si>
+    <t>0001130033</t>
+  </si>
+  <si>
+    <t>0001130047</t>
+  </si>
+  <si>
+    <t>0001130035</t>
+  </si>
+  <si>
+    <t>0001130030</t>
+  </si>
+  <si>
+    <t>0001130056</t>
+  </si>
+  <si>
+    <t>0001130041</t>
+  </si>
+  <si>
+    <t>0001130034</t>
+  </si>
+  <si>
+    <t>0001130057</t>
+  </si>
+  <si>
+    <t>0001130044</t>
+  </si>
+  <si>
+    <t>0001130065</t>
+  </si>
+  <si>
+    <t>0001130050</t>
+  </si>
+  <si>
+    <t>0001130046</t>
+  </si>
+  <si>
+    <t>0001130063</t>
+  </si>
+  <si>
+    <t>0001130085</t>
+  </si>
+  <si>
+    <t>0001130071</t>
+  </si>
+  <si>
+    <t>0001130066</t>
+  </si>
+  <si>
+    <t>0001130081</t>
+  </si>
+  <si>
+    <t>0001130072</t>
+  </si>
+  <si>
+    <t>0001130061</t>
+  </si>
+  <si>
+    <t>0001130089</t>
+  </si>
+  <si>
+    <t>0001130073</t>
+  </si>
+  <si>
+    <t>0001130069</t>
+  </si>
+  <si>
+    <t>0001130087</t>
+  </si>
+  <si>
+    <t>0001130077</t>
+  </si>
+  <si>
+    <t>0001130068</t>
+  </si>
+  <si>
+    <t>0001130084</t>
+  </si>
+  <si>
+    <t>0001130079</t>
+  </si>
+  <si>
+    <t>0001130096</t>
+  </si>
+  <si>
+    <t>0001130103</t>
+  </si>
+  <si>
+    <t>0001130107</t>
+  </si>
+  <si>
+    <t>0001130098</t>
+  </si>
+  <si>
+    <t>0001130111</t>
+  </si>
+  <si>
+    <t>0001130110</t>
+  </si>
+  <si>
+    <t>0001130095</t>
+  </si>
+  <si>
+    <t>0001130106</t>
+  </si>
+  <si>
+    <t>0001130118</t>
+  </si>
+  <si>
+    <t>0001130094</t>
+  </si>
+  <si>
+    <t>0001130108</t>
+  </si>
+  <si>
+    <t>0001130119</t>
+  </si>
+  <si>
+    <t>0001130097</t>
+  </si>
+  <si>
+    <t>0001130116</t>
+  </si>
+  <si>
+    <t>0001130122</t>
+  </si>
+  <si>
+    <t>0001130143</t>
+  </si>
+  <si>
+    <t>0001130120</t>
+  </si>
+  <si>
+    <t>0001130124</t>
+  </si>
+  <si>
+    <t>0001130142</t>
+  </si>
+  <si>
+    <t>0001130129</t>
+  </si>
+  <si>
+    <t>0001130132</t>
+  </si>
+  <si>
+    <t>0001130138</t>
+  </si>
+  <si>
+    <t>0001130131</t>
+  </si>
+  <si>
+    <t>0001130134</t>
+  </si>
+  <si>
+    <t>0001130140</t>
+  </si>
+  <si>
+    <t>0001130147</t>
+  </si>
+  <si>
+    <t>0001130144</t>
+  </si>
+  <si>
+    <t>0001130135</t>
+  </si>
+  <si>
+    <t>0001130149</t>
+  </si>
+  <si>
+    <t>0001130145</t>
+  </si>
+  <si>
+    <t>02000000002017</t>
+  </si>
+  <si>
+    <t>4000006758</t>
+  </si>
+  <si>
+    <t>02000000002021</t>
+  </si>
+  <si>
+    <t>4000006760</t>
+  </si>
+  <si>
+    <t>02000000002025</t>
+  </si>
+  <si>
+    <t>4000006723</t>
+  </si>
+  <si>
+    <t>02000000002029</t>
+  </si>
+  <si>
+    <t>4000006763</t>
+  </si>
+  <si>
+    <t>02000000002033</t>
+  </si>
+  <si>
+    <t>4000006765</t>
+  </si>
+  <si>
+    <t>02000000002037</t>
+  </si>
+  <si>
+    <t>4000006767</t>
+  </si>
+  <si>
+    <t>03000000002041</t>
+  </si>
+  <si>
+    <t>4000006726</t>
+  </si>
+  <si>
+    <t>03000000002045</t>
+  </si>
+  <si>
+    <t>4000006728</t>
+  </si>
+  <si>
+    <t>03000000002049</t>
+  </si>
+  <si>
+    <t>4000006729</t>
+  </si>
+  <si>
+    <t>03000000002053</t>
+  </si>
+  <si>
+    <t>4000006731</t>
+  </si>
+  <si>
+    <t>03000000002057</t>
+  </si>
+  <si>
+    <t>4000006733</t>
+  </si>
+  <si>
+    <t>03000000002061</t>
+  </si>
+  <si>
+    <t>4000006735</t>
+  </si>
+  <si>
+    <t>05000000002065</t>
+  </si>
+  <si>
+    <t>4000006737</t>
+  </si>
+  <si>
+    <t>05000000002069</t>
+  </si>
+  <si>
+    <t>4000006725</t>
+  </si>
+  <si>
+    <t>05000000002073</t>
+  </si>
+  <si>
+    <t>4000006740</t>
+  </si>
+  <si>
+    <t>05000000002077</t>
+  </si>
+  <si>
+    <t>4000006742</t>
+  </si>
+  <si>
+    <t>05000000002081</t>
+  </si>
+  <si>
+    <t>4000006745</t>
+  </si>
+  <si>
+    <t>05000000002085</t>
+  </si>
+  <si>
+    <t>4000006747</t>
+  </si>
+  <si>
+    <t>06000000002089</t>
+  </si>
+  <si>
+    <t>4000006749</t>
+  </si>
+  <si>
+    <t>06000000002093</t>
+  </si>
+  <si>
+    <t>06000000002097</t>
+  </si>
+  <si>
+    <t>4000006751</t>
+  </si>
+  <si>
+    <t>06000000002101</t>
+  </si>
+  <si>
+    <t>4000006753</t>
+  </si>
+  <si>
+    <t>06000000002105</t>
+  </si>
+  <si>
+    <t>4000006755</t>
+  </si>
+  <si>
+    <t>06000000002109</t>
+  </si>
+  <si>
+    <t>4000006757</t>
+  </si>
+  <si>
+    <t>80871985</t>
+  </si>
+  <si>
+    <t>80871986</t>
+  </si>
+  <si>
+    <t>80871987</t>
+  </si>
+  <si>
+    <t>80871988</t>
+  </si>
+  <si>
+    <t>80871989</t>
+  </si>
+  <si>
+    <t>80871990</t>
+  </si>
+  <si>
+    <t>80871991</t>
+  </si>
+  <si>
+    <t>80871992</t>
+  </si>
+  <si>
+    <t>80871993</t>
+  </si>
+  <si>
+    <t>80871994</t>
+  </si>
+  <si>
+    <t>80871995</t>
+  </si>
+  <si>
+    <t>80871996</t>
+  </si>
+  <si>
+    <t>80871997</t>
+  </si>
+  <si>
+    <t>80871998</t>
+  </si>
+  <si>
+    <t>80871999</t>
+  </si>
+  <si>
+    <t>80872000</t>
+  </si>
+  <si>
+    <t>80872001</t>
+  </si>
+  <si>
+    <t>80872002</t>
+  </si>
+  <si>
+    <t>80872003</t>
+  </si>
+  <si>
+    <t>80872004</t>
+  </si>
+  <si>
+    <t>80872005</t>
+  </si>
+  <si>
+    <t>80872006</t>
+  </si>
+  <si>
+    <t>80872007</t>
+  </si>
+  <si>
+    <t>80872008</t>
+  </si>
+  <si>
+    <t>80872009</t>
+  </si>
+  <si>
+    <t>80872010</t>
+  </si>
+  <si>
+    <t>80872011</t>
+  </si>
+  <si>
+    <t>80872012</t>
+  </si>
+  <si>
+    <t>80872013</t>
+  </si>
+  <si>
+    <t>80872014</t>
+  </si>
+  <si>
+    <t>80872015</t>
+  </si>
+  <si>
+    <t>80872016</t>
+  </si>
+  <si>
+    <t>80872017</t>
+  </si>
+  <si>
+    <t>80872018</t>
+  </si>
+  <si>
+    <t>80872019</t>
+  </si>
+  <si>
+    <t>80872020</t>
+  </si>
+  <si>
+    <t>80872021</t>
+  </si>
+  <si>
+    <t>80872022</t>
+  </si>
+  <si>
+    <t>80872023</t>
+  </si>
+  <si>
+    <t>80872024</t>
+  </si>
+  <si>
+    <t>80872025</t>
+  </si>
+  <si>
+    <t>80872026</t>
+  </si>
+  <si>
+    <t>80872027</t>
+  </si>
+  <si>
+    <t>80872028</t>
+  </si>
+  <si>
+    <t>80872029</t>
+  </si>
+  <si>
+    <t>80872030</t>
+  </si>
+  <si>
+    <t>80872031</t>
+  </si>
+  <si>
+    <t>80872032</t>
   </si>
 </sst>
 </file>
@@ -592,7 +1648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +1667,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -624,7 +1692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -632,11 +1700,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
-  <dimension ref="A1:BA4"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BB10" sqref="BB10"/>
+      <selection activeCell="AX17" sqref="AX17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,9 +2061,9 @@
     <col min="32" max="32" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="10" width="20.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="10" width="20.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="10" width="23.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="9" width="20.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="9" width="20.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="9" width="23.140625" collapsed="true"/>
     <col min="38" max="38" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
@@ -1008,9 +2078,10 @@
     <col min="50" max="51" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="52" max="52" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="53" max="53" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="54" max="56" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1113,13 +2184,13 @@
       <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="7" t="s">
         <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -1170,15 +2241,24 @@
       <c r="BA1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="BB1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>1002</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
@@ -1191,22 +2271,22 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" t="s">
-        <v>125</v>
+        <v>132</v>
+      </c>
+      <c r="L2">
+        <v>2017</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="O2" t="s">
         <v>3</v>
@@ -1218,63 +2298,63 @@
         <v>60</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Z2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AD2">
         <v>10</v>
       </c>
-      <c r="AG2">
-        <v>2032500</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>131</v>
+      <c r="AG2" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="AN2" s="3"/>
       <c r="AO2" s="4" t="s">
-        <v>154</v>
+        <v>364</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>156</v>
+        <v>366</v>
       </c>
       <c r="AR2" t="s">
-        <v>169</v>
+        <v>483</v>
       </c>
       <c r="AS2" s="3"/>
       <c r="AT2" s="3" t="s">
-        <v>164</v>
+        <v>437</v>
       </c>
       <c r="AU2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV2" s="11" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="AV2" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>163</v>
+        <v>436</v>
       </c>
       <c r="AX2" t="s">
-        <v>170</v>
+        <v>484</v>
       </c>
       <c r="AY2" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="AZ2" t="s">
         <v>47</v>
@@ -1282,15 +2362,24 @@
       <c r="BA2" t="s">
         <v>47</v>
       </c>
+      <c r="BB2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>1002</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E3" t="s">
@@ -1303,22 +2392,22 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
@@ -1330,63 +2419,63 @@
         <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Z3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="AD3">
         <v>11</v>
       </c>
-      <c r="AG3">
-        <v>2032500</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>141</v>
+      <c r="AG3" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="AN3" s="3"/>
       <c r="AO3" s="4" t="s">
-        <v>157</v>
+        <v>367</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>158</v>
+        <v>368</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>159</v>
+        <v>369</v>
       </c>
       <c r="AR3" t="s">
-        <v>171</v>
+        <v>485</v>
       </c>
       <c r="AS3" s="3"/>
       <c r="AT3" s="3" t="s">
-        <v>166</v>
+        <v>439</v>
       </c>
       <c r="AU3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="AW3" s="5" t="s">
-        <v>165</v>
+        <v>438</v>
       </c>
       <c r="AX3" t="s">
-        <v>172</v>
+        <v>486</v>
       </c>
       <c r="AY3" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="AZ3" t="s">
         <v>47</v>
@@ -1394,15 +2483,24 @@
       <c r="BA3" t="s">
         <v>47</v>
       </c>
+      <c r="BB3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>1004</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E4" t="s">
@@ -1415,22 +2513,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="O4" t="s">
         <v>3</v>
@@ -1442,69 +2540,2619 @@
         <v>60</v>
       </c>
       <c r="Y4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Z4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AD4">
         <v>12</v>
       </c>
-      <c r="AG4">
-        <v>2032500</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>151</v>
+      <c r="AG4" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AN4" s="3"/>
       <c r="AO4" s="4" t="s">
-        <v>160</v>
+        <v>370</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="AR4" t="s">
-        <v>173</v>
+        <v>487</v>
       </c>
       <c r="AS4" s="3"/>
       <c r="AT4" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW4" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>488</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
         <v>168</v>
       </c>
-      <c r="AU4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW4" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AX4" t="s">
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD5">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="AQ5" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>489</v>
+      </c>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW5" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>174</v>
       </c>
-      <c r="AY4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>47</v>
+      <c r="J6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+      <c r="L6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M6">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD6">
+        <v>11</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW6" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>492</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7">
+        <v>36</v>
+      </c>
+      <c r="N7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AD7">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI7" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>493</v>
+      </c>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW7" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>494</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="11">
+        <v>1137</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>60</v>
+      </c>
+      <c r="X8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD8">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK8" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP8" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>496</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>199</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>200</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="11">
+        <v>1137</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>203</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD9">
+        <v>11</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>497</v>
+      </c>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW9" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>498</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1137</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10">
+        <v>36</v>
+      </c>
+      <c r="N10" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD10">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK10" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="AP10" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="AQ10" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>499</v>
+      </c>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV10" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW10" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>500</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>221</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1137</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>225</v>
+      </c>
+      <c r="M11">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>226</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP11" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="AQ11" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>501</v>
+      </c>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW11" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>502</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>231</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1137</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>234</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>60</v>
+      </c>
+      <c r="X12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD12">
+        <v>11</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="AK12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP12" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW12" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>504</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>238</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>239</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1137</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>241</v>
+      </c>
+      <c r="M13">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>242</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" t="s">
+        <v>60</v>
+      </c>
+      <c r="X13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK13" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="AP13" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AQ13" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>505</v>
+      </c>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV13" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW13" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>506</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>246</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1568</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>250</v>
+      </c>
+      <c r="O14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>60</v>
+      </c>
+      <c r="X14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD14">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP14" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ14" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>507</v>
+      </c>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV14" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW14" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>508</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>257</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>258</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1568</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>259</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>260</v>
+      </c>
+      <c r="M15">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>261</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>60</v>
+      </c>
+      <c r="X15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD15">
+        <v>11</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP15" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ15" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>509</v>
+      </c>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV15" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW15" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>510</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>268</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>269</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1568</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>271</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>273</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" t="s">
+        <v>60</v>
+      </c>
+      <c r="X16" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD16">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ16" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AK16" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AP16" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="AQ16" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>511</v>
+      </c>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW16" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>512</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>280</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>281</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1568</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>282</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" t="s">
+        <v>283</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>284</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>60</v>
+      </c>
+      <c r="X17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD17">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ17" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AK17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AP17" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="AQ17" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>513</v>
+      </c>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV17" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW17" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>514</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>288</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>289</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1568</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" t="s">
+        <v>291</v>
+      </c>
+      <c r="M18">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>292</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" t="s">
+        <v>60</v>
+      </c>
+      <c r="X18" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD18">
+        <v>11</v>
+      </c>
+      <c r="AG18" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI18" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ18" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK18" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP18" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>515</v>
+      </c>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV18" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW18" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>516</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>297</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1568</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>298</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" t="s">
+        <v>299</v>
+      </c>
+      <c r="M19">
+        <v>36</v>
+      </c>
+      <c r="N19" t="s">
+        <v>300</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" t="s">
+        <v>60</v>
+      </c>
+      <c r="X19" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>301</v>
+      </c>
+      <c r="AD19">
+        <v>12</v>
+      </c>
+      <c r="AG19" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI19" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK19" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="AP19" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AQ19" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>517</v>
+      </c>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV19" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW19" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>518</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="11">
+        <v>1906</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>306</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" t="s">
+        <v>307</v>
+      </c>
+      <c r="M20">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>308</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" t="s">
+        <v>60</v>
+      </c>
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD20">
+        <v>10</v>
+      </c>
+      <c r="AG20" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI20" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ20" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK20" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="AP20" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>519</v>
+      </c>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV20" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW20" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>520</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>315</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>316</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1906</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>317</v>
+      </c>
+      <c r="J21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" t="s">
+        <v>318</v>
+      </c>
+      <c r="M21">
+        <v>33</v>
+      </c>
+      <c r="N21" t="s">
+        <v>319</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" t="s">
+        <v>60</v>
+      </c>
+      <c r="X21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD21">
+        <v>11</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI21" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="AK21" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP21" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="AQ21" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>521</v>
+      </c>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW21" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>522</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>326</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>327</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1906</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>329</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L22" t="s">
+        <v>330</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s">
+        <v>331</v>
+      </c>
+      <c r="O22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" t="s">
+        <v>60</v>
+      </c>
+      <c r="X22" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>332</v>
+      </c>
+      <c r="AD22">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="11">
+        <v>2010000</v>
+      </c>
+      <c r="AI22" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AJ22" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK22" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="AP22" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="AQ22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>523</v>
+      </c>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV22" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW22" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>524</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>338</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>339</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1906</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>340</v>
+      </c>
+      <c r="J23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" t="s">
+        <v>341</v>
+      </c>
+      <c r="M23">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" t="s">
+        <v>60</v>
+      </c>
+      <c r="X23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD23">
+        <v>10</v>
+      </c>
+      <c r="AG23" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI23" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK23" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="AP23" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="AQ23" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>525</v>
+      </c>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV23" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW23" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>526</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>346</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>347</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="11">
+        <v>1906</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>348</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" t="s">
+        <v>349</v>
+      </c>
+      <c r="M24">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>350</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>351</v>
+      </c>
+      <c r="AD24">
+        <v>11</v>
+      </c>
+      <c r="AG24" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI24" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="AJ24" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AK24" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AP24" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="AQ24" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>527</v>
+      </c>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV24" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW24" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>528</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>354</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>355</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1906</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>356</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" t="s">
+        <v>357</v>
+      </c>
+      <c r="M25">
+        <v>36</v>
+      </c>
+      <c r="N25" t="s">
+        <v>358</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD25">
+        <v>12</v>
+      </c>
+      <c r="AG25" s="11">
+        <v>2067902</v>
+      </c>
+      <c r="AI25" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ25" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK25" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AP25" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="AQ25" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>529</v>
+      </c>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV25" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AW25" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>530</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>47</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>362</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>363</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/db_farmanet_escenarios.xlsx
+++ b/Resources/db_farmanet_escenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alflopez-ext\Documents\Automation\Proyectos_Katalon\git\katalonProjects\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA8A58A-4F84-4A3B-B2D9-9582867262AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815EC21-652D-4596-905A-A3966F7A0E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{DCE7E561-B195-4D45-B807-475C6552309D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="387">
   <si>
     <t>filtrar</t>
   </si>
@@ -230,10 +230,970 @@
     <t>05</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>80000000</t>
+  </si>
+  <si>
+    <t>05:14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>80872103</t>
+  </si>
+  <si>
+    <t>80872104</t>
+  </si>
+  <si>
+    <t>80872105</t>
+  </si>
+  <si>
+    <t>80872106</t>
+  </si>
+  <si>
+    <t>80872107</t>
+  </si>
+  <si>
+    <t>80872108</t>
+  </si>
+  <si>
+    <t>25.03.2020</t>
+  </si>
+  <si>
+    <t>LOTE2913</t>
+  </si>
+  <si>
+    <t>20200325</t>
+  </si>
+  <si>
+    <t>20211115</t>
+  </si>
+  <si>
+    <t>2913</t>
+  </si>
+  <si>
+    <t>0000R00002913</t>
+  </si>
+  <si>
+    <t>20200125</t>
+  </si>
+  <si>
+    <t>3425761</t>
+  </si>
+  <si>
+    <t>1002;LOTE2913;20211115;DESC LOTE2913;LOTE2913;N;LOTE2913;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002913;FNET;FNET;02;ZRET;20200325;;1800000122;20200325;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE2913;;;;;0000-00002913;2913;20200325;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200325002C001CLIENTESAPNROOC032202003251002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003250002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200325NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425771 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425781 </t>
+  </si>
+  <si>
+    <t>LOTE2917</t>
+  </si>
+  <si>
+    <t>2917</t>
+  </si>
+  <si>
+    <t>0000R00002917</t>
+  </si>
+  <si>
+    <t>3425803</t>
+  </si>
+  <si>
+    <t>1137;LOTE2917;20211115;DESC LOTE2917;LOTE2917;N;LOTE2917;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002917;FNET;FNET;03;ZRET;20200325;;1800000033;20200325;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE2917;;;;;0000-00002917;2917;20200325;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200325002C001CLIENTESAPNROOC032202003251137              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003250002073900PEDIDO                                                                          1137              11       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200325NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425813 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425823 </t>
+  </si>
+  <si>
+    <t>LOTE2921</t>
+  </si>
+  <si>
+    <t>2921</t>
+  </si>
+  <si>
+    <t>0000R00002921</t>
+  </si>
+  <si>
+    <t>3425845</t>
+  </si>
+  <si>
+    <t>1568;LOTE2921;20211115;DESC LOTE2921;LOTE2921;N;LOTE2921;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002921;FNET;FNET;05;ZRET;20200325;;1800000042;20200325;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE2921;;;;;0000-00002921;2921;20200325;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200325002C001CLIENTESAPNROOC032202003251568              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003250002073900PEDIDO                                                                          1568              12       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200325NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425855 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425865 </t>
+  </si>
+  <si>
+    <t>0001131457</t>
+  </si>
+  <si>
+    <t>0001131463</t>
+  </si>
+  <si>
+    <t>0001131458</t>
+  </si>
+  <si>
+    <t>0001131470</t>
+  </si>
+  <si>
+    <t>0001131466</t>
+  </si>
+  <si>
+    <t>0001131461</t>
+  </si>
+  <si>
+    <t>0001131468</t>
+  </si>
+  <si>
+    <t>0001131467</t>
+  </si>
+  <si>
+    <t>0001131459</t>
+  </si>
+  <si>
+    <t>02000000002913</t>
+  </si>
+  <si>
+    <t>4000007169</t>
+  </si>
+  <si>
+    <t>03000000002917</t>
+  </si>
+  <si>
+    <t>4000007170</t>
+  </si>
+  <si>
+    <t>05000000002921</t>
+  </si>
+  <si>
+    <t>4000007172</t>
+  </si>
+  <si>
+    <t>26.03.2020</t>
+  </si>
+  <si>
+    <t>LOTE2933</t>
+  </si>
+  <si>
+    <t>20200326</t>
+  </si>
+  <si>
+    <t>20211116</t>
+  </si>
+  <si>
+    <t>2933</t>
+  </si>
+  <si>
+    <t>0000R00002933</t>
+  </si>
+  <si>
+    <t>20200126</t>
+  </si>
+  <si>
+    <t>3425971</t>
+  </si>
+  <si>
+    <t>1002;LOTE2933;20211116;DESC LOTE2933;LOTE2933;N;LOTE2933;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002933;FNET;FNET;02;ZRET;20200326;;1800000122;20200326;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE2933;;;;;0000-00002933;2933;20200326;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200326002C001CLIENTESAPNROOC032202003261002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003260002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200326NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425981 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3425991 </t>
+  </si>
+  <si>
+    <t>LOTE2937</t>
+  </si>
+  <si>
+    <t>2937</t>
+  </si>
+  <si>
+    <t>0000R00002937</t>
+  </si>
+  <si>
+    <t>3426013</t>
+  </si>
+  <si>
+    <t>1137;LOTE2937;20211116;DESC LOTE2937;LOTE2937;N;LOTE2937;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002937;FNET;FNET;03;ZRET;20200326;;1800000033;20200326;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE2937;;;;;0000-00002937;2937;20200326;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200326002C001CLIENTESAPNROOC032202003261137              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003260002073900PEDIDO                                                                          1137              11       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200326NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426033 </t>
+  </si>
+  <si>
+    <t>LOTE2941</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>0000R00002941</t>
+  </si>
+  <si>
+    <t>3426055</t>
+  </si>
+  <si>
+    <t>1568;LOTE2941;20211116;DESC LOTE2941;LOTE2941;N;LOTE2941;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002941;FNET;FNET;05;ZRET;20200326;;1800000042;20200326;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE2941;;;;;0000-00002941;2941;20200326;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200326002C001CLIENTESAPNROOC032202003261568              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003260002073900PEDIDO                                                                          1568              12       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200326NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426065 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426075 </t>
+  </si>
+  <si>
+    <t>0001131489</t>
+  </si>
+  <si>
+    <t>0001131495</t>
+  </si>
+  <si>
+    <t>0001131490</t>
+  </si>
+  <si>
+    <t>0001131503</t>
+  </si>
+  <si>
+    <t>0001131498</t>
+  </si>
+  <si>
+    <t>0001131493</t>
+  </si>
+  <si>
+    <t>0001131502</t>
+  </si>
+  <si>
+    <t>0001131499</t>
+  </si>
+  <si>
+    <t>0001131492</t>
+  </si>
+  <si>
+    <t>02000000002933</t>
+  </si>
+  <si>
+    <t>4000007182</t>
+  </si>
+  <si>
+    <t>03000000002937</t>
+  </si>
+  <si>
+    <t>4000007179</t>
+  </si>
+  <si>
+    <t>05000000002941</t>
+  </si>
+  <si>
+    <t>4000007181</t>
+  </si>
+  <si>
+    <t>27.03.2020</t>
+  </si>
+  <si>
+    <t>17:27</t>
+  </si>
+  <si>
+    <t>LOTE2951</t>
+  </si>
+  <si>
+    <t>20200327</t>
+  </si>
+  <si>
+    <t>20211117</t>
+  </si>
+  <si>
+    <t>2951</t>
+  </si>
+  <si>
+    <t>0000R00002951</t>
+  </si>
+  <si>
+    <t>20200127</t>
+  </si>
+  <si>
+    <t>3426160</t>
+  </si>
+  <si>
+    <t>1002;LOTE2951;20211117;DESC LOTE2951;LOTE2951;N;LOTE2951;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002951;FNET;FNET;02;ZRET;20200327;;1800000122;20200327;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE2951;;;;;0000-00002951;2951;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200327002C001CLIENTESAPNROOC032202003271002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003270002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200327NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426170 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426180 </t>
+  </si>
+  <si>
+    <t>LOTE2955</t>
+  </si>
+  <si>
+    <t>2955</t>
+  </si>
+  <si>
+    <t>0000R00002955</t>
+  </si>
+  <si>
+    <t>3426202</t>
+  </si>
+  <si>
+    <t>1137;LOTE2955;20211117;DESC LOTE2955;LOTE2955;N;LOTE2955;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002955;FNET;FNET;03;ZRET;20200327;;1800000033;20200327;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE2955;;;;;0000-00002955;2955;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200327002C001CLIENTESAPNROOC032202003271137              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003270002073900PEDIDO                                                                          1137              11       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200327NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426212 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426222 </t>
+  </si>
+  <si>
+    <t>LOTE2959</t>
+  </si>
+  <si>
+    <t>2959</t>
+  </si>
+  <si>
+    <t>0000R00002959</t>
+  </si>
+  <si>
+    <t>3426244</t>
+  </si>
+  <si>
+    <t>1568;LOTE2959;20211117;DESC LOTE2959;LOTE2959;N;LOTE2959;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000002959;FNET;FNET;05;ZRET;20200327;;1800000042;20200327;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE2959;;;;;0000-00002959;2959;20200327;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200327002C001CLIENTESAPNROOC032202003271568              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003270002073900PEDIDO                                                                          1568              12       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200327NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426254 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426264 </t>
+  </si>
+  <si>
+    <t>0001131519</t>
+  </si>
+  <si>
+    <t>0001131516</t>
+  </si>
+  <si>
+    <t>0001131518</t>
+  </si>
+  <si>
+    <t>0001131520</t>
+  </si>
+  <si>
+    <t>0001131530</t>
+  </si>
+  <si>
+    <t>0001131525</t>
+  </si>
+  <si>
+    <t>0001131522</t>
+  </si>
+  <si>
+    <t>0001131529</t>
+  </si>
+  <si>
+    <t>0001131526</t>
+  </si>
+  <si>
+    <t>02000000002951</t>
+  </si>
+  <si>
+    <t>4000007191</t>
+  </si>
+  <si>
+    <t>03000000002955</t>
+  </si>
+  <si>
+    <t>4000007185</t>
+  </si>
+  <si>
+    <t>05000000002959</t>
+  </si>
+  <si>
+    <t>4000007187</t>
+  </si>
+  <si>
+    <t>28.03.2020</t>
+  </si>
+  <si>
+    <t>LOTE2995</t>
+  </si>
+  <si>
+    <t>20200328</t>
+  </si>
+  <si>
+    <t>20211118</t>
+  </si>
+  <si>
+    <t>2995</t>
+  </si>
+  <si>
+    <t>0000R00002995</t>
+  </si>
+  <si>
+    <t>20200128</t>
+  </si>
+  <si>
+    <t>3426622</t>
+  </si>
+  <si>
+    <t>1002;LOTE2995;20211118;DESC LOTE2995;LOTE2995;N;LOTE2995;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000002995;FNET;FNET;02;ZRET;20200328;;1800000122;20200328;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE2995;;;;;0000-00002995;2995;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200328002C001CLIENTESAPNROOC032202003281002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003280002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200328NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426632 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426642 </t>
+  </si>
+  <si>
+    <t>LOTE2999</t>
+  </si>
+  <si>
+    <t>2999</t>
+  </si>
+  <si>
+    <t>0000R00002999</t>
+  </si>
+  <si>
+    <t>3426664</t>
+  </si>
+  <si>
+    <t>1137;LOTE2999;20211118;DESC LOTE2999;LOTE2999;N;LOTE2999;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000002999;FNET;FNET;03;ZRET;20200328;;1800000033;20200328;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE2999;;;;;0000-00002999;2999;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200328002C001CLIENTESAPNROOC032202003281137              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003280002073900PEDIDO                                                                          1137              11       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200328NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426674 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426684 </t>
+  </si>
+  <si>
+    <t>LOTE3003</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>0000R00003003</t>
+  </si>
+  <si>
+    <t>3426706</t>
+  </si>
+  <si>
+    <t>1568;LOTE3003;20211118;DESC LOTE3003;LOTE3003;N;LOTE3003;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000003003;FNET;FNET;05;ZRET;20200328;;1800000042;20200328;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE3003;;;;;0000-00003003;3003;20200328;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200328002C001CLIENTESAPNROOC032202003281568              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003280002073900PEDIDO                                                                          1568              12       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200328NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426716 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426726 </t>
+  </si>
+  <si>
+    <t>0001131594</t>
+  </si>
+  <si>
+    <t>0001131584</t>
+  </si>
+  <si>
+    <t>0001131586</t>
+  </si>
+  <si>
+    <t>0001131591</t>
+  </si>
+  <si>
+    <t>0001131587</t>
+  </si>
+  <si>
+    <t>0001131590</t>
+  </si>
+  <si>
+    <t>0001131596</t>
+  </si>
+  <si>
+    <t>0001131597</t>
+  </si>
+  <si>
+    <t>0001131593</t>
+  </si>
+  <si>
+    <t>02000000002995</t>
+  </si>
+  <si>
+    <t>4000007209</t>
+  </si>
+  <si>
+    <t>03000000002999</t>
+  </si>
+  <si>
+    <t>05000000003003</t>
+  </si>
+  <si>
+    <t>29.03.2020</t>
+  </si>
+  <si>
+    <t>LOTE3027</t>
+  </si>
+  <si>
+    <t>20200329</t>
+  </si>
+  <si>
+    <t>20211119</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>0000R00003027</t>
+  </si>
+  <si>
+    <t>20200129</t>
+  </si>
+  <si>
+    <t>3426958</t>
+  </si>
+  <si>
+    <t>1002;LOTE3027;20211119;DESC LOTE3027;LOTE3027;N;LOTE3027;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003027;FNET;FNET;02;ZRET;20200329;;1800000122;20200329;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE3027;;;;;0000-00003027;3027;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200329002C001CLIENTESAPNROOC032202003291002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003290002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200329NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426968 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3426978 </t>
+  </si>
+  <si>
+    <t>LOTE3031</t>
+  </si>
+  <si>
+    <t>3031</t>
+  </si>
+  <si>
+    <t>0000R00003031</t>
+  </si>
+  <si>
+    <t>3427000</t>
+  </si>
+  <si>
+    <t>1137;LOTE3031;20211119;DESC LOTE3031;LOTE3031;N;LOTE3031;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000003031;FNET;FNET;03;ZRET;20200329;;1800000033;20200329;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE3031;;;;;0000-00003031;3031;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200329002C001CLIENTESAPNROOC032202003291137              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003290002073900PEDIDO                                                                          1137              11       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200329NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427010 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427020 </t>
+  </si>
+  <si>
+    <t>LOTE3035</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>0000R00003035</t>
+  </si>
+  <si>
+    <t>3427042</t>
+  </si>
+  <si>
+    <t>1568;LOTE3035;20211119;DESC LOTE3035;LOTE3035;N;LOTE3035;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000003035;FNET;FNET;05;ZRET;20200329;;1800000042;20200329;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE3035;;;;;0000-00003035;3035;20200329;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200329002C001CLIENTESAPNROOC032202003291568              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003290002073900PEDIDO                                                                          1568              12       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200329NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427052 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427062 </t>
+  </si>
+  <si>
+    <t>0001131642</t>
+  </si>
+  <si>
+    <t>0001131633</t>
+  </si>
+  <si>
+    <t>0001131635</t>
+  </si>
+  <si>
+    <t>0001131639</t>
+  </si>
+  <si>
+    <t>0001131644</t>
+  </si>
+  <si>
+    <t>0001131636</t>
+  </si>
+  <si>
+    <t>0001131640</t>
+  </si>
+  <si>
+    <t>0001131646</t>
+  </si>
+  <si>
+    <t>0001131638</t>
+  </si>
+  <si>
+    <t>02000000003027</t>
+  </si>
+  <si>
+    <t>4000007225</t>
+  </si>
+  <si>
+    <t>03000000003031</t>
+  </si>
+  <si>
+    <t>4000007222</t>
+  </si>
+  <si>
+    <t>05000000003035</t>
+  </si>
+  <si>
+    <t>4000007224</t>
+  </si>
+  <si>
+    <t>30.03.2020</t>
+  </si>
+  <si>
+    <t>LOTE3059</t>
+  </si>
+  <si>
+    <t>20200330</t>
+  </si>
+  <si>
+    <t>20211120</t>
+  </si>
+  <si>
+    <t>3059</t>
+  </si>
+  <si>
+    <t>0000R00003059</t>
+  </si>
+  <si>
+    <t>20200130</t>
+  </si>
+  <si>
+    <t>3427294</t>
+  </si>
+  <si>
+    <t>1002;LOTE3059;20211120;DESC LOTE3059;LOTE3059;N;LOTE3059;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>02000000003059;FNET;FNET;02;ZRET;20200330;;1800000122;20200330;08:00;16:00;20000;Remito electrónico Test;;;1002;30;C/U;LOTE3059;;;;;0000-00003059;3059;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200330002C001CLIENTESAPNROOC032202003301002              10           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003300002073900PEDIDO                                                                          1002              10       139                         02        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1002  133198CLIENTESAPC00120200330NROOC1  10     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1002              10     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427314 </t>
+  </si>
+  <si>
+    <t>LOTE3063</t>
+  </si>
+  <si>
+    <t>3063</t>
+  </si>
+  <si>
+    <t>0000R00003063</t>
+  </si>
+  <si>
+    <t>3427336</t>
+  </si>
+  <si>
+    <t>1137;LOTE3063;20211120;DESC LOTE3063;LOTE3063;N;LOTE3063;;AR;;;;;;S;1;S;210;20181103;F;N;</t>
+  </si>
+  <si>
+    <t>03000000003063;FNET;FNET;03;ZRET;20200330;;1800000033;20200330;08:00;16:00;20000;Remito electrónico Test;;;1137;33;C/U;LOTE3063;;;;;0000-00003063;3063;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200330002C001CLIENTESAPNROOC032202003301137              11           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003300002073900PEDIDO                                                                          1137              11       139                         03        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1137  133198CLIENTESAPC00120200330NROOC1  11     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1137              11     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427346 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427356 </t>
+  </si>
+  <si>
+    <t>LOTE3067</t>
+  </si>
+  <si>
+    <t>3067</t>
+  </si>
+  <si>
+    <t>0000R00003067</t>
+  </si>
+  <si>
+    <t>3427378</t>
+  </si>
+  <si>
+    <t>1568;LOTE3067;20211120;DESC LOTE3067;LOTE3067;N;LOTE3067;;AR;;;;;;N;;;210;20181103;;N;</t>
+  </si>
+  <si>
+    <t>05000000003067;FNET;FNET;05;ZRET;20200330;;1800000042;20200330;08:00;16:00;20000;Remito electrónico Test;;;1568;36;C/U;LOTE3067;;;;;0000-00003067;3067;20200330;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDIDO            20200330002C001CLIENTESAPNROOC032202003301568              12           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">202003300002073900PEDIDO                                                                          1568              12       139                         05        03      NUMEROWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VTD1568  133198CLIENTESAPC00120200330NROOC1  12     /////ESTE PEDIDO HA SIDO CREADO POR UN PROCESO DE AUTOMATIZACION./////                    1568              12     816 0  011   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427398 </t>
+  </si>
+  <si>
+    <t>0001131680</t>
+  </si>
+  <si>
+    <t>0001131681</t>
+  </si>
+  <si>
+    <t>0001131683</t>
+  </si>
+  <si>
+    <t>0001131692</t>
+  </si>
+  <si>
+    <t>0001131688</t>
+  </si>
+  <si>
+    <t>0001131685</t>
+  </si>
+  <si>
+    <t>0001131693</t>
+  </si>
+  <si>
+    <t>0001131690</t>
+  </si>
+  <si>
+    <t>0001131689</t>
+  </si>
+  <si>
+    <t>02000000003059</t>
+  </si>
+  <si>
+    <t>4000007238</t>
+  </si>
+  <si>
+    <t>03000000003063</t>
+  </si>
+  <si>
+    <t>4000007239</t>
+  </si>
+  <si>
+    <t>05000000003067</t>
+  </si>
+  <si>
+    <t>4000007241</t>
   </si>
 </sst>
 </file>
@@ -256,7 +1216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +1226,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,18 +1251,18 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2E8823-6EAB-486E-9169-DE992862E70B}">
   <dimension ref="A1:BD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3:BD4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,9 +1588,9 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="18.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="16.5703125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="22.140625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
@@ -663,9 +1617,9 @@
     <col min="32" max="32" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="9" width="20.7109375" collapsed="true"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="9" width="20.28515625" collapsed="true"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="9" width="23.140625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="3" width="20.28515625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="3" width="23.140625" collapsed="true"/>
     <col min="38" max="38" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
     <col min="39" max="39" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="40" max="40" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
@@ -684,28 +1638,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -720,7 +1674,7 @@
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -771,7 +1725,7 @@
       <c r="AC1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AE1" t="s">
@@ -780,19 +1734,19 @@
       <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>34</v>
       </c>
       <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AL1" s="1" t="s">
@@ -853,166 +1807,367 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <v>1002</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M2">
+      <c r="I2" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M2" s="7">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AD2">
+      <c r="W2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD2" s="7">
         <v>10</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="7">
         <v>2010000</v>
       </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AV2" s="10"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>66</v>
+      <c r="AI2" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>1137</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M3">
+      <c r="I3" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M3" s="7">
         <v>33</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AD3">
+      <c r="W3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD3" s="7">
         <v>11</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="7">
         <v>2010000</v>
       </c>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>66</v>
+      <c r="AI3" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AV3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW3" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>1568</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M4">
+      <c r="I4" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="M4" s="7">
         <v>36</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AD4">
+      <c r="W4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD4" s="7">
         <v>12</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="7">
         <v>2010000</v>
       </c>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>66</v>
+      <c r="AI4" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK4" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL4" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM4" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="AV4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
